--- a/Code/Results/Cases/Case_4_26/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_26/res_bus/vm_pu.xlsx
@@ -421,16 +421,16 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9795543411636236</v>
+        <v>0.9795543411636226</v>
       </c>
       <c r="D2">
         <v>1.001986419258784</v>
       </c>
       <c r="E2">
-        <v>0.9892441353821488</v>
+        <v>0.9892441353821479</v>
       </c>
       <c r="F2">
-        <v>0.9888270077041528</v>
+        <v>0.9888270077041518</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -439,16 +439,16 @@
         <v>1.037525173197941</v>
       </c>
       <c r="J2">
-        <v>1.002364262442645</v>
+        <v>1.002364262442644</v>
       </c>
       <c r="K2">
-        <v>1.013418149303627</v>
+        <v>1.013418149303626</v>
       </c>
       <c r="L2">
-        <v>1.000855378577698</v>
+        <v>1.000855378577697</v>
       </c>
       <c r="M2">
-        <v>1.000444226390528</v>
+        <v>1.000444226390527</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,16 +459,16 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9914726078763328</v>
+        <v>0.9914726078763341</v>
       </c>
       <c r="D3">
-        <v>1.011416987288501</v>
+        <v>1.011416987288502</v>
       </c>
       <c r="E3">
-        <v>1.000676952078418</v>
+        <v>1.00067695207842</v>
       </c>
       <c r="F3">
-        <v>1.000863320801067</v>
+        <v>1.000863320801068</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -477,16 +477,16 @@
         <v>1.041808718375172</v>
       </c>
       <c r="J3">
-        <v>1.012198468786436</v>
+        <v>1.012198468786437</v>
       </c>
       <c r="K3">
-        <v>1.021905840407367</v>
+        <v>1.021905840407368</v>
       </c>
       <c r="L3">
-        <v>1.011301178498102</v>
+        <v>1.011301178498103</v>
       </c>
       <c r="M3">
-        <v>1.01148516718176</v>
+        <v>1.011485167181761</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,34 +497,34 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9988048887755903</v>
+        <v>0.9988048887755924</v>
       </c>
       <c r="D4">
-        <v>1.01722252911205</v>
+        <v>1.017222529112052</v>
       </c>
       <c r="E4">
-        <v>1.007717267874218</v>
+        <v>1.007717267874221</v>
       </c>
       <c r="F4">
-        <v>1.008279551939868</v>
+        <v>1.008279551939871</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.044425001885917</v>
+        <v>1.044425001885918</v>
       </c>
       <c r="J4">
-        <v>1.018239215104894</v>
+        <v>1.018239215104896</v>
       </c>
       <c r="K4">
-        <v>1.027117443811904</v>
+        <v>1.027117443811905</v>
       </c>
       <c r="L4">
-        <v>1.017723436096468</v>
+        <v>1.017723436096471</v>
       </c>
       <c r="M4">
-        <v>1.018279066662118</v>
+        <v>1.018279066662121</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,7 +535,7 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.001804863753669</v>
+        <v>1.001804863753668</v>
       </c>
       <c r="D5">
         <v>1.019598491388888</v>
@@ -556,13 +556,13 @@
         <v>1.020708429161311</v>
       </c>
       <c r="K5">
-        <v>1.029247178689008</v>
+        <v>1.029247178689007</v>
       </c>
       <c r="L5">
         <v>1.020349988254022</v>
       </c>
       <c r="M5">
-        <v>1.021058985759446</v>
+        <v>1.021058985759445</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,34 +573,34 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.002303953978975</v>
+        <v>1.002303953978978</v>
       </c>
       <c r="D6">
-        <v>1.01999379931685</v>
+        <v>1.019993799316853</v>
       </c>
       <c r="E6">
-        <v>1.011078806142867</v>
+        <v>1.011078806142869</v>
       </c>
       <c r="F6">
-        <v>1.01182185912433</v>
+        <v>1.011821859124332</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.045667809851087</v>
+        <v>1.045667809851088</v>
       </c>
       <c r="J6">
-        <v>1.021119079869058</v>
+        <v>1.021119079869061</v>
       </c>
       <c r="K6">
-        <v>1.029601336369276</v>
+        <v>1.029601336369279</v>
       </c>
       <c r="L6">
-        <v>1.020786887316149</v>
+        <v>1.020786887316152</v>
       </c>
       <c r="M6">
-        <v>1.021521476612644</v>
+        <v>1.021521476612647</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,7 +611,7 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9988452886969671</v>
+        <v>0.9988452886969666</v>
       </c>
       <c r="D7">
         <v>1.017254523344097</v>
@@ -632,10 +632,10 @@
         <v>1.018272476776124</v>
       </c>
       <c r="K7">
-        <v>1.027146134822416</v>
+        <v>1.027146134822415</v>
       </c>
       <c r="L7">
-        <v>1.017758811675948</v>
+        <v>1.017758811675947</v>
       </c>
       <c r="M7">
         <v>1.018316502397989</v>
@@ -649,34 +649,34 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9836662492489487</v>
+        <v>0.9836662492489503</v>
       </c>
       <c r="D8">
-        <v>1.005239085892924</v>
+        <v>1.005239085892925</v>
       </c>
       <c r="E8">
-        <v>0.9931870389958378</v>
+        <v>0.9931870389958387</v>
       </c>
       <c r="F8">
-        <v>0.9929771384276395</v>
+        <v>0.9929771384276408</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.039007035013301</v>
+        <v>1.039007035013302</v>
       </c>
       <c r="J8">
-        <v>1.005759106760735</v>
+        <v>1.005759106760737</v>
       </c>
       <c r="K8">
-        <v>1.016348555034855</v>
+        <v>1.016348555034856</v>
       </c>
       <c r="L8">
-        <v>1.004460093946749</v>
+        <v>1.00446009394675</v>
       </c>
       <c r="M8">
-        <v>1.004253086757592</v>
+        <v>1.004253086757594</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -684,19 +684,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C9">
-        <v>0.9535485549572461</v>
+        <v>0.9535485549572463</v>
       </c>
       <c r="D9">
-        <v>0.9814448428471405</v>
+        <v>0.9814448428471406</v>
       </c>
       <c r="E9">
-        <v>0.9643444733347536</v>
+        <v>0.9643444733347541</v>
       </c>
       <c r="F9">
-        <v>0.9626370590638339</v>
+        <v>0.962637059063834</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -705,16 +705,16 @@
         <v>1.028072480219261</v>
       </c>
       <c r="J9">
-        <v>0.9808554467127559</v>
+        <v>0.9808554467127563</v>
       </c>
       <c r="K9">
-        <v>0.9948463135793645</v>
+        <v>0.9948463135793647</v>
       </c>
       <c r="L9">
-        <v>0.9780437989311775</v>
+        <v>0.9780437989311779</v>
       </c>
       <c r="M9">
-        <v>0.9763668791263622</v>
+        <v>0.9763668791263623</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,16 +725,16 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9303626276390544</v>
+        <v>0.9303626276390534</v>
       </c>
       <c r="D10">
-        <v>0.9631860924259418</v>
+        <v>0.9631860924259412</v>
       </c>
       <c r="E10">
-        <v>0.9421999447521503</v>
+        <v>0.9421999447521495</v>
       </c>
       <c r="F10">
-        <v>0.939365352595116</v>
+        <v>0.9393653525951151</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -743,16 +743,16 @@
         <v>1.019556176654284</v>
       </c>
       <c r="J10">
-        <v>0.9616401420320086</v>
+        <v>0.9616401420320076</v>
       </c>
       <c r="K10">
-        <v>0.9782534426768886</v>
+        <v>0.9782534426768877</v>
       </c>
       <c r="L10">
-        <v>0.9576975764594438</v>
+        <v>0.9576975764594432</v>
       </c>
       <c r="M10">
-        <v>0.9549230549250447</v>
+        <v>0.954923054925044</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,16 +763,16 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9193126767567639</v>
+        <v>0.919312676756763</v>
       </c>
       <c r="D11">
-        <v>0.954506827455596</v>
+        <v>0.9545068274555953</v>
       </c>
       <c r="E11">
-        <v>0.9316651926017726</v>
+        <v>0.9316651926017719</v>
       </c>
       <c r="F11">
-        <v>0.9282990590587575</v>
+        <v>0.928299059058757</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -781,16 +781,16 @@
         <v>1.015477136788852</v>
       </c>
       <c r="J11">
-        <v>0.952475080416094</v>
+        <v>0.9524750804160932</v>
       </c>
       <c r="K11">
-        <v>0.9703408864151747</v>
+        <v>0.9703408864151739</v>
       </c>
       <c r="L11">
-        <v>0.9480020980202215</v>
+        <v>0.9480020980202208</v>
       </c>
       <c r="M11">
-        <v>0.9447128642450829</v>
+        <v>0.9447128642450824</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,34 +801,34 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9150234036550952</v>
+        <v>0.9150234036550984</v>
       </c>
       <c r="D12">
-        <v>0.9511421261591949</v>
+        <v>0.9511421261591976</v>
       </c>
       <c r="E12">
-        <v>0.9275792757237424</v>
+        <v>0.9275792757237457</v>
       </c>
       <c r="F12">
-        <v>0.9240075979561018</v>
+        <v>0.9240075979561052</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.013891084241094</v>
+        <v>1.013891084241095</v>
       </c>
       <c r="J12">
-        <v>0.9489167040962481</v>
+        <v>0.9489167040962511</v>
       </c>
       <c r="K12">
-        <v>0.967269300763101</v>
+        <v>0.9672693007631037</v>
       </c>
       <c r="L12">
-        <v>0.9442391720350813</v>
+        <v>0.9442391720350849</v>
       </c>
       <c r="M12">
-        <v>0.9407514243709431</v>
+        <v>0.9407514243709461</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,34 +839,34 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.915952485824941</v>
+        <v>0.9159524858249389</v>
       </c>
       <c r="D13">
-        <v>0.9518707272322062</v>
+        <v>0.9518707272322044</v>
       </c>
       <c r="E13">
-        <v>0.9284641480388668</v>
+        <v>0.9284641480388645</v>
       </c>
       <c r="F13">
-        <v>0.9249369584036305</v>
+        <v>0.9249369584036282</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.014234746355643</v>
+        <v>1.014234746355641</v>
       </c>
       <c r="J13">
-        <v>0.9496874970521927</v>
+        <v>0.9496874970521907</v>
       </c>
       <c r="K13">
-        <v>0.9679346211098132</v>
+        <v>0.9679346211098115</v>
       </c>
       <c r="L13">
-        <v>0.9450542102627203</v>
+        <v>0.9450542102627181</v>
       </c>
       <c r="M13">
-        <v>0.9416094038743889</v>
+        <v>0.9416094038743866</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,16 +877,16 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9189621259551791</v>
+        <v>0.918962125955178</v>
       </c>
       <c r="D14">
-        <v>0.9542317457647878</v>
+        <v>0.9542317457647869</v>
       </c>
       <c r="E14">
-        <v>0.9313311902184733</v>
+        <v>0.9313311902184724</v>
       </c>
       <c r="F14">
-        <v>0.9279482427749176</v>
+        <v>0.9279482427749164</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -895,16 +895,16 @@
         <v>1.015347564475463</v>
       </c>
       <c r="J14">
-        <v>0.9521842767660127</v>
+        <v>0.9521842767660117</v>
       </c>
       <c r="K14">
-        <v>0.97008985341774</v>
+        <v>0.9700898534177391</v>
       </c>
       <c r="L14">
-        <v>0.9476945497083075</v>
+        <v>0.9476945497083064</v>
       </c>
       <c r="M14">
-        <v>0.9443890660094418</v>
+        <v>0.9443890660094405</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,34 +915,34 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9207907952593242</v>
+        <v>0.9207907952593219</v>
       </c>
       <c r="D15">
-        <v>0.9556669067322946</v>
+        <v>0.9556669067322927</v>
       </c>
       <c r="E15">
-        <v>0.9330736727532326</v>
+        <v>0.9330736727532303</v>
       </c>
       <c r="F15">
-        <v>0.9297784671448176</v>
+        <v>0.9297784671448153</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.016023380665635</v>
+        <v>1.016023380665634</v>
       </c>
       <c r="J15">
-        <v>0.9537012431616836</v>
+        <v>0.9537012431616817</v>
       </c>
       <c r="K15">
-        <v>0.9713993793920086</v>
+        <v>0.9713993793920065</v>
       </c>
       <c r="L15">
-        <v>0.9492989199968832</v>
+        <v>0.9492989199968811</v>
       </c>
       <c r="M15">
-        <v>0.9460782567036015</v>
+        <v>0.9460782567035994</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,34 +953,34 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9310721088503217</v>
+        <v>0.9310721088503151</v>
       </c>
       <c r="D16">
-        <v>0.9637438877151732</v>
+        <v>0.9637438877151683</v>
       </c>
       <c r="E16">
-        <v>0.9428767692743486</v>
+        <v>0.9428767692743421</v>
       </c>
       <c r="F16">
-        <v>0.9400764151624005</v>
+        <v>0.9400764151623939</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.019817695241559</v>
+        <v>1.019817695241556</v>
       </c>
       <c r="J16">
-        <v>0.9622284770533026</v>
+        <v>0.9622284770532967</v>
       </c>
       <c r="K16">
-        <v>0.9787614283330621</v>
+        <v>0.978761428333057</v>
       </c>
       <c r="L16">
-        <v>0.9583201452731395</v>
+        <v>0.9583201452731329</v>
       </c>
       <c r="M16">
-        <v>0.955578843124942</v>
+        <v>0.9555788431249357</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -991,34 +991,34 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9372306377510118</v>
+        <v>0.9372306377510095</v>
       </c>
       <c r="D17">
-        <v>0.968588282613291</v>
+        <v>0.9685882826132892</v>
       </c>
       <c r="E17">
-        <v>0.9487539438642141</v>
+        <v>0.9487539438642113</v>
       </c>
       <c r="F17">
-        <v>0.9462514012683526</v>
+        <v>0.9462514012683499</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.022085565783854</v>
+        <v>1.022085565783853</v>
       </c>
       <c r="J17">
-        <v>0.9673346329575064</v>
+        <v>0.9673346329575043</v>
       </c>
       <c r="K17">
-        <v>0.9831704400820471</v>
+        <v>0.9831704400820455</v>
       </c>
       <c r="L17">
-        <v>0.9637244045997094</v>
+        <v>0.9637244045997069</v>
       </c>
       <c r="M17">
-        <v>0.9612723787463043</v>
+        <v>0.9612723787463019</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1029,34 +1029,34 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9407280134388417</v>
+        <v>0.9407280134388406</v>
       </c>
       <c r="D18">
-        <v>0.9713413483749537</v>
+        <v>0.9713413483749527</v>
       </c>
       <c r="E18">
-        <v>0.9520932197241213</v>
+        <v>0.9520932197241202</v>
       </c>
       <c r="F18">
-        <v>0.9497603203986381</v>
+        <v>0.949760320398637</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.023371593224482</v>
+        <v>1.023371593224481</v>
       </c>
       <c r="J18">
-        <v>0.9702336730388501</v>
+        <v>0.9702336730388492</v>
       </c>
       <c r="K18">
-        <v>0.9856738098728272</v>
+        <v>0.9856738098728262</v>
       </c>
       <c r="L18">
-        <v>0.9667935091111222</v>
+        <v>0.9667935091111212</v>
       </c>
       <c r="M18">
-        <v>0.9645065216715596</v>
+        <v>0.9645065216715584</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1067,16 +1067,16 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9419052889285188</v>
+        <v>0.9419052889285187</v>
       </c>
       <c r="D19">
-        <v>0.9722683882382281</v>
+        <v>0.9722683882382283</v>
       </c>
       <c r="E19">
-        <v>0.9532175479783228</v>
+        <v>0.9532175479783223</v>
       </c>
       <c r="F19">
-        <v>0.9509418429037463</v>
+        <v>0.9509418429037459</v>
       </c>
       <c r="G19">
         <v>1</v>
@@ -1085,16 +1085,16 @@
         <v>1.023804164257413</v>
       </c>
       <c r="J19">
-        <v>0.9712094111184845</v>
+        <v>0.9712094111184841</v>
       </c>
       <c r="K19">
-        <v>0.9865163930900702</v>
+        <v>0.9865163930900701</v>
       </c>
       <c r="L19">
-        <v>0.9678266236206851</v>
+        <v>0.9678266236206847</v>
       </c>
       <c r="M19">
-        <v>0.9655953193436486</v>
+        <v>0.9655953193436484</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1105,16 +1105,16 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9365798957725454</v>
+        <v>0.936579895772547</v>
       </c>
       <c r="D20">
-        <v>0.9680761865964173</v>
+        <v>0.9680761865964184</v>
       </c>
       <c r="E20">
-        <v>0.9481327526005494</v>
+        <v>0.9481327526005505</v>
       </c>
       <c r="F20">
-        <v>0.9455986878739411</v>
+        <v>0.9455986878739422</v>
       </c>
       <c r="G20">
         <v>1</v>
@@ -1123,16 +1123,16 @@
         <v>1.021846124740742</v>
       </c>
       <c r="J20">
-        <v>0.966795161401199</v>
+        <v>0.9667951614012003</v>
       </c>
       <c r="K20">
-        <v>0.9827046069360098</v>
+        <v>0.9827046069360108</v>
       </c>
       <c r="L20">
-        <v>0.9631533526606745</v>
+        <v>0.963153352660676</v>
       </c>
       <c r="M20">
-        <v>0.9606706807207661</v>
+        <v>0.9606706807207672</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1143,34 +1143,34 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9180812859001587</v>
+        <v>0.9180812859001635</v>
       </c>
       <c r="D21">
-        <v>0.9535406123631888</v>
+        <v>0.9535406123631928</v>
       </c>
       <c r="E21">
-        <v>0.9304919878079426</v>
+        <v>0.9304919878079476</v>
       </c>
       <c r="F21">
-        <v>0.9270668038194371</v>
+        <v>0.927066803819442</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.015021942572112</v>
+        <v>1.015021942572113</v>
       </c>
       <c r="J21">
-        <v>0.9514535544767261</v>
+        <v>0.9514535544767306</v>
       </c>
       <c r="K21">
-        <v>0.9694590745060333</v>
+        <v>0.9694590745060372</v>
       </c>
       <c r="L21">
-        <v>0.9469217742428855</v>
+        <v>0.9469217742428903</v>
       </c>
       <c r="M21">
-        <v>0.9435754794115244</v>
+        <v>0.943575479411529</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1181,34 +1181,34 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9053553484369431</v>
+        <v>0.9053553484369461</v>
       </c>
       <c r="D22">
-        <v>0.9435675161418219</v>
+        <v>0.9435675161418237</v>
       </c>
       <c r="E22">
-        <v>0.9183766351094508</v>
+        <v>0.9183766351094536</v>
       </c>
       <c r="F22">
-        <v>0.9143430279551545</v>
+        <v>0.9143430279551572</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.010311612510405</v>
+        <v>1.010311612510407</v>
       </c>
       <c r="J22">
-        <v>0.9408951817931968</v>
+        <v>0.9408951817931991</v>
       </c>
       <c r="K22">
-        <v>0.9603464073543301</v>
+        <v>0.9603464073543321</v>
       </c>
       <c r="L22">
-        <v>0.935759178805341</v>
+        <v>0.9357591788053436</v>
       </c>
       <c r="M22">
-        <v>0.9318264016621983</v>
+        <v>0.9318264016622009</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1219,34 +1219,34 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9122196971464533</v>
+        <v>0.9122196971464542</v>
       </c>
       <c r="D23">
-        <v>0.9489441419788056</v>
+        <v>0.9489441419788066</v>
       </c>
       <c r="E23">
-        <v>0.9249095270618232</v>
+        <v>0.9249095270618241</v>
       </c>
       <c r="F23">
-        <v>0.9212037053937443</v>
+        <v>0.9212037053937451</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.012853650317651</v>
+        <v>1.012853650317652</v>
       </c>
       <c r="J23">
-        <v>0.9465905918574734</v>
+        <v>0.9465905918574744</v>
       </c>
       <c r="K23">
-        <v>0.9652615818055404</v>
+        <v>0.9652615818055413</v>
       </c>
       <c r="L23">
-        <v>0.9417797423434736</v>
+        <v>0.9417797423434746</v>
       </c>
       <c r="M23">
-        <v>0.938162600084723</v>
+        <v>0.9381626000847239</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1257,34 +1257,34 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9368742286244107</v>
+        <v>0.9368742286244106</v>
       </c>
       <c r="D24">
-        <v>0.9683078032923477</v>
+        <v>0.9683078032923476</v>
       </c>
       <c r="E24">
         <v>0.9484137143521035</v>
       </c>
       <c r="F24">
-        <v>0.9458939055694523</v>
+        <v>0.9458939055694519</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.021954430644132</v>
+        <v>1.021954430644133</v>
       </c>
       <c r="J24">
-        <v>0.9670391684732464</v>
+        <v>0.9670391684732462</v>
       </c>
       <c r="K24">
         <v>0.9829153063889761</v>
       </c>
       <c r="L24">
-        <v>0.9634116412344772</v>
+        <v>0.9634116412344771</v>
       </c>
       <c r="M24">
-        <v>0.9609428282497309</v>
+        <v>0.9609428282497305</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1295,16 +1295,16 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9618084597552875</v>
+        <v>0.9618084597552886</v>
       </c>
       <c r="D25">
-        <v>0.9879629591384886</v>
+        <v>0.9879629591384894</v>
       </c>
       <c r="E25">
-        <v>0.9722460461777024</v>
+        <v>0.9722460461777033</v>
       </c>
       <c r="F25">
-        <v>0.9709450119694361</v>
+        <v>0.9709450119694372</v>
       </c>
       <c r="G25">
         <v>1</v>
@@ -1313,16 +1313,16 @@
         <v>1.031088256450757</v>
       </c>
       <c r="J25">
-        <v>0.9876932111478672</v>
+        <v>0.9876932111478683</v>
       </c>
       <c r="K25">
         <v>1.000751053601804</v>
       </c>
       <c r="L25">
-        <v>0.9852910487709798</v>
+        <v>0.9852910487709809</v>
       </c>
       <c r="M25">
-        <v>0.9840117616179427</v>
+        <v>0.984011761617944</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_26/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_26/res_bus/vm_pu.xlsx
@@ -421,16 +421,16 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9795543411636226</v>
+        <v>0.9795543411636236</v>
       </c>
       <c r="D2">
         <v>1.001986419258784</v>
       </c>
       <c r="E2">
-        <v>0.9892441353821479</v>
+        <v>0.9892441353821488</v>
       </c>
       <c r="F2">
-        <v>0.9888270077041518</v>
+        <v>0.9888270077041528</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -439,16 +439,16 @@
         <v>1.037525173197941</v>
       </c>
       <c r="J2">
-        <v>1.002364262442644</v>
+        <v>1.002364262442645</v>
       </c>
       <c r="K2">
-        <v>1.013418149303626</v>
+        <v>1.013418149303627</v>
       </c>
       <c r="L2">
-        <v>1.000855378577697</v>
+        <v>1.000855378577698</v>
       </c>
       <c r="M2">
-        <v>1.000444226390527</v>
+        <v>1.000444226390528</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,16 +459,16 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9914726078763341</v>
+        <v>0.9914726078763328</v>
       </c>
       <c r="D3">
-        <v>1.011416987288502</v>
+        <v>1.011416987288501</v>
       </c>
       <c r="E3">
-        <v>1.00067695207842</v>
+        <v>1.000676952078418</v>
       </c>
       <c r="F3">
-        <v>1.000863320801068</v>
+        <v>1.000863320801067</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -477,16 +477,16 @@
         <v>1.041808718375172</v>
       </c>
       <c r="J3">
-        <v>1.012198468786437</v>
+        <v>1.012198468786436</v>
       </c>
       <c r="K3">
-        <v>1.021905840407368</v>
+        <v>1.021905840407367</v>
       </c>
       <c r="L3">
-        <v>1.011301178498103</v>
+        <v>1.011301178498102</v>
       </c>
       <c r="M3">
-        <v>1.011485167181761</v>
+        <v>1.01148516718176</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,34 +497,34 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9988048887755924</v>
+        <v>0.9988048887755903</v>
       </c>
       <c r="D4">
-        <v>1.017222529112052</v>
+        <v>1.01722252911205</v>
       </c>
       <c r="E4">
-        <v>1.007717267874221</v>
+        <v>1.007717267874218</v>
       </c>
       <c r="F4">
-        <v>1.008279551939871</v>
+        <v>1.008279551939868</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.044425001885918</v>
+        <v>1.044425001885917</v>
       </c>
       <c r="J4">
-        <v>1.018239215104896</v>
+        <v>1.018239215104894</v>
       </c>
       <c r="K4">
-        <v>1.027117443811905</v>
+        <v>1.027117443811904</v>
       </c>
       <c r="L4">
-        <v>1.017723436096471</v>
+        <v>1.017723436096468</v>
       </c>
       <c r="M4">
-        <v>1.018279066662121</v>
+        <v>1.018279066662118</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,7 +535,7 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.001804863753668</v>
+        <v>1.001804863753669</v>
       </c>
       <c r="D5">
         <v>1.019598491388888</v>
@@ -556,13 +556,13 @@
         <v>1.020708429161311</v>
       </c>
       <c r="K5">
-        <v>1.029247178689007</v>
+        <v>1.029247178689008</v>
       </c>
       <c r="L5">
         <v>1.020349988254022</v>
       </c>
       <c r="M5">
-        <v>1.021058985759445</v>
+        <v>1.021058985759446</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,34 +573,34 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.002303953978978</v>
+        <v>1.002303953978975</v>
       </c>
       <c r="D6">
-        <v>1.019993799316853</v>
+        <v>1.01999379931685</v>
       </c>
       <c r="E6">
-        <v>1.011078806142869</v>
+        <v>1.011078806142867</v>
       </c>
       <c r="F6">
-        <v>1.011821859124332</v>
+        <v>1.01182185912433</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.045667809851088</v>
+        <v>1.045667809851087</v>
       </c>
       <c r="J6">
-        <v>1.021119079869061</v>
+        <v>1.021119079869058</v>
       </c>
       <c r="K6">
-        <v>1.029601336369279</v>
+        <v>1.029601336369276</v>
       </c>
       <c r="L6">
-        <v>1.020786887316152</v>
+        <v>1.020786887316149</v>
       </c>
       <c r="M6">
-        <v>1.021521476612647</v>
+        <v>1.021521476612644</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,7 +611,7 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9988452886969666</v>
+        <v>0.9988452886969671</v>
       </c>
       <c r="D7">
         <v>1.017254523344097</v>
@@ -632,10 +632,10 @@
         <v>1.018272476776124</v>
       </c>
       <c r="K7">
-        <v>1.027146134822415</v>
+        <v>1.027146134822416</v>
       </c>
       <c r="L7">
-        <v>1.017758811675947</v>
+        <v>1.017758811675948</v>
       </c>
       <c r="M7">
         <v>1.018316502397989</v>
@@ -649,34 +649,34 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9836662492489503</v>
+        <v>0.9836662492489487</v>
       </c>
       <c r="D8">
-        <v>1.005239085892925</v>
+        <v>1.005239085892924</v>
       </c>
       <c r="E8">
-        <v>0.9931870389958387</v>
+        <v>0.9931870389958378</v>
       </c>
       <c r="F8">
-        <v>0.9929771384276408</v>
+        <v>0.9929771384276395</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.039007035013302</v>
+        <v>1.039007035013301</v>
       </c>
       <c r="J8">
-        <v>1.005759106760737</v>
+        <v>1.005759106760735</v>
       </c>
       <c r="K8">
-        <v>1.016348555034856</v>
+        <v>1.016348555034855</v>
       </c>
       <c r="L8">
-        <v>1.00446009394675</v>
+        <v>1.004460093946749</v>
       </c>
       <c r="M8">
-        <v>1.004253086757594</v>
+        <v>1.004253086757592</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -684,19 +684,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9535485549572463</v>
+        <v>0.9535485549572461</v>
       </c>
       <c r="D9">
-        <v>0.9814448428471406</v>
+        <v>0.9814448428471405</v>
       </c>
       <c r="E9">
-        <v>0.9643444733347541</v>
+        <v>0.9643444733347536</v>
       </c>
       <c r="F9">
-        <v>0.962637059063834</v>
+        <v>0.9626370590638339</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -705,16 +705,16 @@
         <v>1.028072480219261</v>
       </c>
       <c r="J9">
-        <v>0.9808554467127563</v>
+        <v>0.9808554467127559</v>
       </c>
       <c r="K9">
-        <v>0.9948463135793647</v>
+        <v>0.9948463135793645</v>
       </c>
       <c r="L9">
-        <v>0.9780437989311779</v>
+        <v>0.9780437989311775</v>
       </c>
       <c r="M9">
-        <v>0.9763668791263623</v>
+        <v>0.9763668791263622</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,16 +725,16 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9303626276390534</v>
+        <v>0.9303626276390544</v>
       </c>
       <c r="D10">
-        <v>0.9631860924259412</v>
+        <v>0.9631860924259418</v>
       </c>
       <c r="E10">
-        <v>0.9421999447521495</v>
+        <v>0.9421999447521503</v>
       </c>
       <c r="F10">
-        <v>0.9393653525951151</v>
+        <v>0.939365352595116</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -743,16 +743,16 @@
         <v>1.019556176654284</v>
       </c>
       <c r="J10">
-        <v>0.9616401420320076</v>
+        <v>0.9616401420320086</v>
       </c>
       <c r="K10">
-        <v>0.9782534426768877</v>
+        <v>0.9782534426768886</v>
       </c>
       <c r="L10">
-        <v>0.9576975764594432</v>
+        <v>0.9576975764594438</v>
       </c>
       <c r="M10">
-        <v>0.954923054925044</v>
+        <v>0.9549230549250447</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,16 +763,16 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.919312676756763</v>
+        <v>0.9193126767567639</v>
       </c>
       <c r="D11">
-        <v>0.9545068274555953</v>
+        <v>0.954506827455596</v>
       </c>
       <c r="E11">
-        <v>0.9316651926017719</v>
+        <v>0.9316651926017726</v>
       </c>
       <c r="F11">
-        <v>0.928299059058757</v>
+        <v>0.9282990590587575</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -781,16 +781,16 @@
         <v>1.015477136788852</v>
       </c>
       <c r="J11">
-        <v>0.9524750804160932</v>
+        <v>0.952475080416094</v>
       </c>
       <c r="K11">
-        <v>0.9703408864151739</v>
+        <v>0.9703408864151747</v>
       </c>
       <c r="L11">
-        <v>0.9480020980202208</v>
+        <v>0.9480020980202215</v>
       </c>
       <c r="M11">
-        <v>0.9447128642450824</v>
+        <v>0.9447128642450829</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,34 +801,34 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9150234036550984</v>
+        <v>0.9150234036550952</v>
       </c>
       <c r="D12">
-        <v>0.9511421261591976</v>
+        <v>0.9511421261591949</v>
       </c>
       <c r="E12">
-        <v>0.9275792757237457</v>
+        <v>0.9275792757237424</v>
       </c>
       <c r="F12">
-        <v>0.9240075979561052</v>
+        <v>0.9240075979561018</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.013891084241095</v>
+        <v>1.013891084241094</v>
       </c>
       <c r="J12">
-        <v>0.9489167040962511</v>
+        <v>0.9489167040962481</v>
       </c>
       <c r="K12">
-        <v>0.9672693007631037</v>
+        <v>0.967269300763101</v>
       </c>
       <c r="L12">
-        <v>0.9442391720350849</v>
+        <v>0.9442391720350813</v>
       </c>
       <c r="M12">
-        <v>0.9407514243709461</v>
+        <v>0.9407514243709431</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,34 +839,34 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9159524858249389</v>
+        <v>0.915952485824941</v>
       </c>
       <c r="D13">
-        <v>0.9518707272322044</v>
+        <v>0.9518707272322062</v>
       </c>
       <c r="E13">
-        <v>0.9284641480388645</v>
+        <v>0.9284641480388668</v>
       </c>
       <c r="F13">
-        <v>0.9249369584036282</v>
+        <v>0.9249369584036305</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.014234746355641</v>
+        <v>1.014234746355643</v>
       </c>
       <c r="J13">
-        <v>0.9496874970521907</v>
+        <v>0.9496874970521927</v>
       </c>
       <c r="K13">
-        <v>0.9679346211098115</v>
+        <v>0.9679346211098132</v>
       </c>
       <c r="L13">
-        <v>0.9450542102627181</v>
+        <v>0.9450542102627203</v>
       </c>
       <c r="M13">
-        <v>0.9416094038743866</v>
+        <v>0.9416094038743889</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,16 +877,16 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.918962125955178</v>
+        <v>0.9189621259551791</v>
       </c>
       <c r="D14">
-        <v>0.9542317457647869</v>
+        <v>0.9542317457647878</v>
       </c>
       <c r="E14">
-        <v>0.9313311902184724</v>
+        <v>0.9313311902184733</v>
       </c>
       <c r="F14">
-        <v>0.9279482427749164</v>
+        <v>0.9279482427749176</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -895,16 +895,16 @@
         <v>1.015347564475463</v>
       </c>
       <c r="J14">
-        <v>0.9521842767660117</v>
+        <v>0.9521842767660127</v>
       </c>
       <c r="K14">
-        <v>0.9700898534177391</v>
+        <v>0.97008985341774</v>
       </c>
       <c r="L14">
-        <v>0.9476945497083064</v>
+        <v>0.9476945497083075</v>
       </c>
       <c r="M14">
-        <v>0.9443890660094405</v>
+        <v>0.9443890660094418</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,34 +915,34 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9207907952593219</v>
+        <v>0.9207907952593242</v>
       </c>
       <c r="D15">
-        <v>0.9556669067322927</v>
+        <v>0.9556669067322946</v>
       </c>
       <c r="E15">
-        <v>0.9330736727532303</v>
+        <v>0.9330736727532326</v>
       </c>
       <c r="F15">
-        <v>0.9297784671448153</v>
+        <v>0.9297784671448176</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.016023380665634</v>
+        <v>1.016023380665635</v>
       </c>
       <c r="J15">
-        <v>0.9537012431616817</v>
+        <v>0.9537012431616836</v>
       </c>
       <c r="K15">
-        <v>0.9713993793920065</v>
+        <v>0.9713993793920086</v>
       </c>
       <c r="L15">
-        <v>0.9492989199968811</v>
+        <v>0.9492989199968832</v>
       </c>
       <c r="M15">
-        <v>0.9460782567035994</v>
+        <v>0.9460782567036015</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,34 +953,34 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9310721088503151</v>
+        <v>0.9310721088503217</v>
       </c>
       <c r="D16">
-        <v>0.9637438877151683</v>
+        <v>0.9637438877151732</v>
       </c>
       <c r="E16">
-        <v>0.9428767692743421</v>
+        <v>0.9428767692743486</v>
       </c>
       <c r="F16">
-        <v>0.9400764151623939</v>
+        <v>0.9400764151624005</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.019817695241556</v>
+        <v>1.019817695241559</v>
       </c>
       <c r="J16">
-        <v>0.9622284770532967</v>
+        <v>0.9622284770533026</v>
       </c>
       <c r="K16">
-        <v>0.978761428333057</v>
+        <v>0.9787614283330621</v>
       </c>
       <c r="L16">
-        <v>0.9583201452731329</v>
+        <v>0.9583201452731395</v>
       </c>
       <c r="M16">
-        <v>0.9555788431249357</v>
+        <v>0.955578843124942</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -991,34 +991,34 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9372306377510095</v>
+        <v>0.9372306377510118</v>
       </c>
       <c r="D17">
-        <v>0.9685882826132892</v>
+        <v>0.968588282613291</v>
       </c>
       <c r="E17">
-        <v>0.9487539438642113</v>
+        <v>0.9487539438642141</v>
       </c>
       <c r="F17">
-        <v>0.9462514012683499</v>
+        <v>0.9462514012683526</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.022085565783853</v>
+        <v>1.022085565783854</v>
       </c>
       <c r="J17">
-        <v>0.9673346329575043</v>
+        <v>0.9673346329575064</v>
       </c>
       <c r="K17">
-        <v>0.9831704400820455</v>
+        <v>0.9831704400820471</v>
       </c>
       <c r="L17">
-        <v>0.9637244045997069</v>
+        <v>0.9637244045997094</v>
       </c>
       <c r="M17">
-        <v>0.9612723787463019</v>
+        <v>0.9612723787463043</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1029,34 +1029,34 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9407280134388406</v>
+        <v>0.9407280134388417</v>
       </c>
       <c r="D18">
-        <v>0.9713413483749527</v>
+        <v>0.9713413483749537</v>
       </c>
       <c r="E18">
-        <v>0.9520932197241202</v>
+        <v>0.9520932197241213</v>
       </c>
       <c r="F18">
-        <v>0.949760320398637</v>
+        <v>0.9497603203986381</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.023371593224481</v>
+        <v>1.023371593224482</v>
       </c>
       <c r="J18">
-        <v>0.9702336730388492</v>
+        <v>0.9702336730388501</v>
       </c>
       <c r="K18">
-        <v>0.9856738098728262</v>
+        <v>0.9856738098728272</v>
       </c>
       <c r="L18">
-        <v>0.9667935091111212</v>
+        <v>0.9667935091111222</v>
       </c>
       <c r="M18">
-        <v>0.9645065216715584</v>
+        <v>0.9645065216715596</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1067,16 +1067,16 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9419052889285187</v>
+        <v>0.9419052889285188</v>
       </c>
       <c r="D19">
-        <v>0.9722683882382283</v>
+        <v>0.9722683882382281</v>
       </c>
       <c r="E19">
-        <v>0.9532175479783223</v>
+        <v>0.9532175479783228</v>
       </c>
       <c r="F19">
-        <v>0.9509418429037459</v>
+        <v>0.9509418429037463</v>
       </c>
       <c r="G19">
         <v>1</v>
@@ -1085,16 +1085,16 @@
         <v>1.023804164257413</v>
       </c>
       <c r="J19">
-        <v>0.9712094111184841</v>
+        <v>0.9712094111184845</v>
       </c>
       <c r="K19">
-        <v>0.9865163930900701</v>
+        <v>0.9865163930900702</v>
       </c>
       <c r="L19">
-        <v>0.9678266236206847</v>
+        <v>0.9678266236206851</v>
       </c>
       <c r="M19">
-        <v>0.9655953193436484</v>
+        <v>0.9655953193436486</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1105,16 +1105,16 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.936579895772547</v>
+        <v>0.9365798957725454</v>
       </c>
       <c r="D20">
-        <v>0.9680761865964184</v>
+        <v>0.9680761865964173</v>
       </c>
       <c r="E20">
-        <v>0.9481327526005505</v>
+        <v>0.9481327526005494</v>
       </c>
       <c r="F20">
-        <v>0.9455986878739422</v>
+        <v>0.9455986878739411</v>
       </c>
       <c r="G20">
         <v>1</v>
@@ -1123,16 +1123,16 @@
         <v>1.021846124740742</v>
       </c>
       <c r="J20">
-        <v>0.9667951614012003</v>
+        <v>0.966795161401199</v>
       </c>
       <c r="K20">
-        <v>0.9827046069360108</v>
+        <v>0.9827046069360098</v>
       </c>
       <c r="L20">
-        <v>0.963153352660676</v>
+        <v>0.9631533526606745</v>
       </c>
       <c r="M20">
-        <v>0.9606706807207672</v>
+        <v>0.9606706807207661</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1143,34 +1143,34 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9180812859001635</v>
+        <v>0.9180812859001587</v>
       </c>
       <c r="D21">
-        <v>0.9535406123631928</v>
+        <v>0.9535406123631888</v>
       </c>
       <c r="E21">
-        <v>0.9304919878079476</v>
+        <v>0.9304919878079426</v>
       </c>
       <c r="F21">
-        <v>0.927066803819442</v>
+        <v>0.9270668038194371</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.015021942572113</v>
+        <v>1.015021942572112</v>
       </c>
       <c r="J21">
-        <v>0.9514535544767306</v>
+        <v>0.9514535544767261</v>
       </c>
       <c r="K21">
-        <v>0.9694590745060372</v>
+        <v>0.9694590745060333</v>
       </c>
       <c r="L21">
-        <v>0.9469217742428903</v>
+        <v>0.9469217742428855</v>
       </c>
       <c r="M21">
-        <v>0.943575479411529</v>
+        <v>0.9435754794115244</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1181,34 +1181,34 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9053553484369461</v>
+        <v>0.9053553484369431</v>
       </c>
       <c r="D22">
-        <v>0.9435675161418237</v>
+        <v>0.9435675161418219</v>
       </c>
       <c r="E22">
-        <v>0.9183766351094536</v>
+        <v>0.9183766351094508</v>
       </c>
       <c r="F22">
-        <v>0.9143430279551572</v>
+        <v>0.9143430279551545</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.010311612510407</v>
+        <v>1.010311612510405</v>
       </c>
       <c r="J22">
-        <v>0.9408951817931991</v>
+        <v>0.9408951817931968</v>
       </c>
       <c r="K22">
-        <v>0.9603464073543321</v>
+        <v>0.9603464073543301</v>
       </c>
       <c r="L22">
-        <v>0.9357591788053436</v>
+        <v>0.935759178805341</v>
       </c>
       <c r="M22">
-        <v>0.9318264016622009</v>
+        <v>0.9318264016621983</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1219,34 +1219,34 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9122196971464542</v>
+        <v>0.9122196971464533</v>
       </c>
       <c r="D23">
-        <v>0.9489441419788066</v>
+        <v>0.9489441419788056</v>
       </c>
       <c r="E23">
-        <v>0.9249095270618241</v>
+        <v>0.9249095270618232</v>
       </c>
       <c r="F23">
-        <v>0.9212037053937451</v>
+        <v>0.9212037053937443</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.012853650317652</v>
+        <v>1.012853650317651</v>
       </c>
       <c r="J23">
-        <v>0.9465905918574744</v>
+        <v>0.9465905918574734</v>
       </c>
       <c r="K23">
-        <v>0.9652615818055413</v>
+        <v>0.9652615818055404</v>
       </c>
       <c r="L23">
-        <v>0.9417797423434746</v>
+        <v>0.9417797423434736</v>
       </c>
       <c r="M23">
-        <v>0.9381626000847239</v>
+        <v>0.938162600084723</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1257,34 +1257,34 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9368742286244106</v>
+        <v>0.9368742286244107</v>
       </c>
       <c r="D24">
-        <v>0.9683078032923476</v>
+        <v>0.9683078032923477</v>
       </c>
       <c r="E24">
         <v>0.9484137143521035</v>
       </c>
       <c r="F24">
-        <v>0.9458939055694519</v>
+        <v>0.9458939055694523</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.021954430644133</v>
+        <v>1.021954430644132</v>
       </c>
       <c r="J24">
-        <v>0.9670391684732462</v>
+        <v>0.9670391684732464</v>
       </c>
       <c r="K24">
         <v>0.9829153063889761</v>
       </c>
       <c r="L24">
-        <v>0.9634116412344771</v>
+        <v>0.9634116412344772</v>
       </c>
       <c r="M24">
-        <v>0.9609428282497305</v>
+        <v>0.9609428282497309</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1295,16 +1295,16 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9618084597552886</v>
+        <v>0.9618084597552875</v>
       </c>
       <c r="D25">
-        <v>0.9879629591384894</v>
+        <v>0.9879629591384886</v>
       </c>
       <c r="E25">
-        <v>0.9722460461777033</v>
+        <v>0.9722460461777024</v>
       </c>
       <c r="F25">
-        <v>0.9709450119694372</v>
+        <v>0.9709450119694361</v>
       </c>
       <c r="G25">
         <v>1</v>
@@ -1313,16 +1313,16 @@
         <v>1.031088256450757</v>
       </c>
       <c r="J25">
-        <v>0.9876932111478683</v>
+        <v>0.9876932111478672</v>
       </c>
       <c r="K25">
         <v>1.000751053601804</v>
       </c>
       <c r="L25">
-        <v>0.9852910487709809</v>
+        <v>0.9852910487709798</v>
       </c>
       <c r="M25">
-        <v>0.984011761617944</v>
+        <v>0.9840117616179427</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_26/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_26/res_bus/vm_pu.xlsx
@@ -421,34 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9795543411636236</v>
+        <v>0.9796431335409783</v>
       </c>
       <c r="D2">
-        <v>1.001986419258784</v>
+        <v>1.002058086787027</v>
       </c>
       <c r="E2">
-        <v>0.9892441353821488</v>
+        <v>0.9893320834674414</v>
       </c>
       <c r="F2">
-        <v>0.9888270077041528</v>
+        <v>0.9889121609078979</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.037525173197941</v>
+        <v>1.037561531224404</v>
       </c>
       <c r="J2">
-        <v>1.002364262442645</v>
+        <v>1.002450243636601</v>
       </c>
       <c r="K2">
-        <v>1.013418149303627</v>
+        <v>1.01348882346581</v>
       </c>
       <c r="L2">
-        <v>1.000855378577698</v>
+        <v>1.000942067592029</v>
       </c>
       <c r="M2">
-        <v>1.000444226390528</v>
+        <v>1.000528159228259</v>
+      </c>
+      <c r="N2">
+        <v>0.996367349971429</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,34 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9914726078763328</v>
+        <v>0.9915418488946042</v>
       </c>
       <c r="D3">
-        <v>1.011416987288501</v>
+        <v>1.011472964526662</v>
       </c>
       <c r="E3">
-        <v>1.000676952078418</v>
+        <v>1.000745621023845</v>
       </c>
       <c r="F3">
-        <v>1.000863320801067</v>
+        <v>1.000929681626599</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.041808718375172</v>
+        <v>1.04183715427592</v>
       </c>
       <c r="J3">
-        <v>1.012198468786436</v>
+        <v>1.012265777808976</v>
       </c>
       <c r="K3">
-        <v>1.021905840407367</v>
+        <v>1.02196112146032</v>
       </c>
       <c r="L3">
-        <v>1.011301178498102</v>
+        <v>1.011368970371547</v>
       </c>
       <c r="M3">
-        <v>1.01148516718176</v>
+        <v>1.011550680807593</v>
+      </c>
+      <c r="N3">
+        <v>1.004055872453572</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,34 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9988048887755903</v>
+        <v>0.9988626933132341</v>
       </c>
       <c r="D4">
-        <v>1.01722252911205</v>
+        <v>1.017269304875144</v>
       </c>
       <c r="E4">
-        <v>1.007717267874218</v>
+        <v>1.00777463668917</v>
       </c>
       <c r="F4">
-        <v>1.008279551939868</v>
+        <v>1.008334930096009</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.044425001885917</v>
+        <v>1.04444878345792</v>
       </c>
       <c r="J4">
-        <v>1.018239215104894</v>
+        <v>1.018295536321969</v>
       </c>
       <c r="K4">
-        <v>1.027117443811904</v>
+        <v>1.027163678444756</v>
       </c>
       <c r="L4">
-        <v>1.017723436096468</v>
+        <v>1.017780125645646</v>
       </c>
       <c r="M4">
-        <v>1.018279066662118</v>
+        <v>1.01833379002645</v>
+      </c>
+      <c r="N4">
+        <v>1.008758918599505</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,34 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.001804863753669</v>
+        <v>1.001858109563524</v>
       </c>
       <c r="D5">
-        <v>1.019598491388888</v>
+        <v>1.019641594465629</v>
       </c>
       <c r="E5">
-        <v>1.01059926069327</v>
+        <v>1.010652120426383</v>
       </c>
       <c r="F5">
-        <v>1.011316472683117</v>
+        <v>1.01136747517829</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.045490779427979</v>
+        <v>1.045512701377928</v>
       </c>
       <c r="J5">
-        <v>1.020708429161311</v>
+        <v>1.020760356654939</v>
       </c>
       <c r="K5">
-        <v>1.029247178689008</v>
+        <v>1.029289798366919</v>
       </c>
       <c r="L5">
-        <v>1.020349988254022</v>
+        <v>1.020402242074566</v>
       </c>
       <c r="M5">
-        <v>1.021058985759446</v>
+        <v>1.02110940465244</v>
+      </c>
+      <c r="N5">
+        <v>1.010676611474492</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,34 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.002303953978975</v>
+        <v>1.002356447921703</v>
       </c>
       <c r="D6">
-        <v>1.01999379931685</v>
+        <v>1.020036296393919</v>
       </c>
       <c r="E6">
-        <v>1.011078806142867</v>
+        <v>1.011130921939841</v>
       </c>
       <c r="F6">
-        <v>1.01182185912433</v>
+        <v>1.011872140068285</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.045667809851087</v>
+        <v>1.045689424852387</v>
       </c>
       <c r="J6">
-        <v>1.021119079869058</v>
+        <v>1.021170281942989</v>
       </c>
       <c r="K6">
-        <v>1.029601336369276</v>
+        <v>1.029643359340296</v>
       </c>
       <c r="L6">
-        <v>1.020786887316149</v>
+        <v>1.02083840899198</v>
       </c>
       <c r="M6">
-        <v>1.021521476612644</v>
+        <v>1.021571185389358</v>
+      </c>
+      <c r="N6">
+        <v>1.010995261658088</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,34 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9988452886969671</v>
+        <v>0.9989030313900797</v>
       </c>
       <c r="D7">
-        <v>1.017254523344097</v>
+        <v>1.017301249301421</v>
       </c>
       <c r="E7">
-        <v>1.007756073261691</v>
+        <v>1.007813380923538</v>
       </c>
       <c r="F7">
-        <v>1.008320439224977</v>
+        <v>1.008375758011634</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.04443937311534</v>
+        <v>1.044463129476172</v>
       </c>
       <c r="J7">
-        <v>1.018272476776124</v>
+        <v>1.018328738440358</v>
       </c>
       <c r="K7">
-        <v>1.027146134822416</v>
+        <v>1.027192320448504</v>
       </c>
       <c r="L7">
-        <v>1.017758811675948</v>
+        <v>1.017815441088377</v>
       </c>
       <c r="M7">
-        <v>1.018316502397989</v>
+        <v>1.018371167379838</v>
+      </c>
+      <c r="N7">
+        <v>1.008784769749061</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,34 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9836662492489487</v>
+        <v>0.9837481545792001</v>
       </c>
       <c r="D8">
-        <v>1.005239085892924</v>
+        <v>1.005305232215218</v>
       </c>
       <c r="E8">
-        <v>0.9931870389958378</v>
+        <v>0.9932682015483152</v>
       </c>
       <c r="F8">
-        <v>0.9929771384276395</v>
+        <v>0.9930556696282203</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.039007035013301</v>
+        <v>1.039040607312165</v>
       </c>
       <c r="J8">
-        <v>1.005759106760735</v>
+        <v>1.00583852646289</v>
       </c>
       <c r="K8">
-        <v>1.016348555034855</v>
+        <v>1.016413817129293</v>
       </c>
       <c r="L8">
-        <v>1.004460093946749</v>
+        <v>1.004540138125412</v>
       </c>
       <c r="M8">
-        <v>1.004253086757592</v>
+        <v>1.00433053526259</v>
+      </c>
+      <c r="N8">
+        <v>0.99902570799858</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,34 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9535485549572461</v>
+        <v>0.9536848638321676</v>
       </c>
       <c r="D9">
-        <v>0.9814448428471405</v>
+        <v>0.9815544352023601</v>
       </c>
       <c r="E9">
-        <v>0.9643444733347536</v>
+        <v>0.9644790733210167</v>
       </c>
       <c r="F9">
-        <v>0.9626370590638339</v>
+        <v>0.9627679601106315</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.028072480219261</v>
+        <v>1.028127922609538</v>
       </c>
       <c r="J9">
-        <v>0.9808554467127559</v>
+        <v>0.980986252906886</v>
       </c>
       <c r="K9">
-        <v>0.9948463135793645</v>
+        <v>0.9949540402707918</v>
       </c>
       <c r="L9">
-        <v>0.9780437989311775</v>
+        <v>0.9781760009176208</v>
       </c>
       <c r="M9">
-        <v>0.9763668791263622</v>
+        <v>0.9764954373049107</v>
+      </c>
+      <c r="N9">
+        <v>0.9794355215902631</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,34 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9303626276390544</v>
+        <v>0.9305483439466942</v>
       </c>
       <c r="D10">
-        <v>0.9631860924259418</v>
+        <v>0.9633348178598691</v>
       </c>
       <c r="E10">
-        <v>0.9421999447521503</v>
+        <v>0.9423827611648766</v>
       </c>
       <c r="F10">
-        <v>0.939365352595116</v>
+        <v>0.9395439122643529</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.019556176654284</v>
+        <v>1.019631233846122</v>
       </c>
       <c r="J10">
-        <v>0.9616401420320086</v>
+        <v>0.9618168032788269</v>
       </c>
       <c r="K10">
-        <v>0.9782534426768886</v>
+        <v>0.9783992067169491</v>
       </c>
       <c r="L10">
-        <v>0.9576975764594438</v>
+        <v>0.957876535046231</v>
       </c>
       <c r="M10">
-        <v>0.9549230549250447</v>
+        <v>0.955097816391568</v>
+      </c>
+      <c r="N10">
+        <v>0.9642032692573982</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,34 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9193126767567639</v>
+        <v>0.9195248826611467</v>
       </c>
       <c r="D11">
-        <v>0.954506827455596</v>
+        <v>0.9546764141610983</v>
       </c>
       <c r="E11">
-        <v>0.9316651926017726</v>
+        <v>0.9318737452349419</v>
       </c>
       <c r="F11">
-        <v>0.9282990590587575</v>
+        <v>0.9285031998439383</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.015477136788852</v>
+        <v>1.015562623860423</v>
       </c>
       <c r="J11">
-        <v>0.952475080416094</v>
+        <v>0.9526760447256696</v>
       </c>
       <c r="K11">
-        <v>0.9703408864151747</v>
+        <v>0.9705068589546202</v>
       </c>
       <c r="L11">
-        <v>0.9480020980202215</v>
+        <v>0.9482059106297264</v>
       </c>
       <c r="M11">
-        <v>0.9447128642450829</v>
+        <v>0.9449123201885083</v>
+      </c>
+      <c r="N11">
+        <v>0.9569105766300217</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,34 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9150234036550952</v>
+        <v>0.9152464898654423</v>
       </c>
       <c r="D12">
-        <v>0.9511421261591949</v>
+        <v>0.9513202582487492</v>
       </c>
       <c r="E12">
-        <v>0.9275792757237424</v>
+        <v>0.9277983772360299</v>
       </c>
       <c r="F12">
-        <v>0.9240075979561018</v>
+        <v>0.9242222507652784</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.013891084241094</v>
+        <v>1.013980839007855</v>
       </c>
       <c r="J12">
-        <v>0.9489167040962481</v>
+        <v>0.9491275982311246</v>
       </c>
       <c r="K12">
-        <v>0.967269300763101</v>
+        <v>0.9674435390482188</v>
       </c>
       <c r="L12">
-        <v>0.9442391720350813</v>
+        <v>0.9444531530863378</v>
       </c>
       <c r="M12">
-        <v>0.9407514243709431</v>
+        <v>0.9409610085426835</v>
+      </c>
+      <c r="N12">
+        <v>0.9540751371436758</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,34 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.915952485824941</v>
+        <v>0.9161731851620188</v>
       </c>
       <c r="D13">
-        <v>0.9518707272322062</v>
+        <v>0.9520469858049416</v>
       </c>
       <c r="E13">
-        <v>0.9284641480388668</v>
+        <v>0.9286809364555395</v>
       </c>
       <c r="F13">
-        <v>0.9249369584036305</v>
+        <v>0.9251493049071867</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.014234746355643</v>
+        <v>1.014323565681644</v>
       </c>
       <c r="J13">
-        <v>0.9496874970521927</v>
+        <v>0.9498962153492482</v>
       </c>
       <c r="K13">
-        <v>0.9679346211098132</v>
+        <v>0.9681070477677578</v>
       </c>
       <c r="L13">
-        <v>0.9450542102627203</v>
+        <v>0.9452659625408056</v>
       </c>
       <c r="M13">
-        <v>0.9416094038743889</v>
+        <v>0.9418167668783949</v>
+      </c>
+      <c r="N13">
+        <v>0.9546895103096975</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,34 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9189621259551791</v>
+        <v>0.9191752079215548</v>
       </c>
       <c r="D14">
-        <v>0.9542317457647878</v>
+        <v>0.954402021020098</v>
       </c>
       <c r="E14">
-        <v>0.9313311902184733</v>
+        <v>0.9315405926930594</v>
       </c>
       <c r="F14">
-        <v>0.9279482427749176</v>
+        <v>0.9281532298700459</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.015347564475463</v>
+        <v>1.015433395516446</v>
       </c>
       <c r="J14">
-        <v>0.9521842767660127</v>
+        <v>0.9523860417056974</v>
       </c>
       <c r="K14">
-        <v>0.97008985341774</v>
+        <v>0.9702564922289142</v>
       </c>
       <c r="L14">
-        <v>0.9476945497083075</v>
+        <v>0.9478991819040267</v>
       </c>
       <c r="M14">
-        <v>0.9443890660094418</v>
+        <v>0.944589337771047</v>
+      </c>
+      <c r="N14">
+        <v>0.9566789339955293</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,34 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9207907952593242</v>
+        <v>0.9209993323220224</v>
       </c>
       <c r="D15">
-        <v>0.9556669067322946</v>
+        <v>0.9558336089317986</v>
       </c>
       <c r="E15">
-        <v>0.9330736727532326</v>
+        <v>0.9332786654593253</v>
       </c>
       <c r="F15">
-        <v>0.9297784671448176</v>
+        <v>0.9299790638800955</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.016023380665635</v>
+        <v>1.016107426575254</v>
       </c>
       <c r="J15">
-        <v>0.9537012431616836</v>
+        <v>0.9538988524081121</v>
       </c>
       <c r="K15">
-        <v>0.9713993793920086</v>
+        <v>0.9715625602605267</v>
       </c>
       <c r="L15">
-        <v>0.9492989199968832</v>
+        <v>0.9494992986545785</v>
       </c>
       <c r="M15">
-        <v>0.9460782567036015</v>
+        <v>0.9462742954994319</v>
+      </c>
+      <c r="N15">
+        <v>0.957887128369515</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,37 +995,40 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9310721088503217</v>
+        <v>0.9312561952062679</v>
       </c>
       <c r="D16">
-        <v>0.9637438877151732</v>
+        <v>0.9638913268525117</v>
       </c>
       <c r="E16">
-        <v>0.9428767692743486</v>
+        <v>0.94305799954973</v>
       </c>
       <c r="F16">
-        <v>0.9400764151624005</v>
+        <v>0.9402534013773604</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.019817695241559</v>
+        <v>1.019892108770791</v>
       </c>
       <c r="J16">
-        <v>0.9622284770533026</v>
+        <v>0.962403636755805</v>
       </c>
       <c r="K16">
-        <v>0.9787614283330621</v>
+        <v>0.9789059448637125</v>
       </c>
       <c r="L16">
-        <v>0.9583201452731395</v>
+        <v>0.9584975698682928</v>
       </c>
       <c r="M16">
-        <v>0.955578843124942</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>0.9557520833896327</v>
+      </c>
+      <c r="N16">
+        <v>0.9646708633515443</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -991,37 +1036,40 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9372306377510118</v>
+        <v>0.9374009092378985</v>
       </c>
       <c r="D17">
-        <v>0.968588282613291</v>
+        <v>0.9687248068936727</v>
       </c>
       <c r="E17">
-        <v>0.9487539438642141</v>
+        <v>0.9489217184755547</v>
       </c>
       <c r="F17">
-        <v>0.9462514012683526</v>
+        <v>0.9464150545060994</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.022085565783854</v>
+        <v>1.022154514736906</v>
       </c>
       <c r="J17">
-        <v>0.9673346329575064</v>
+        <v>0.967497036389895</v>
       </c>
       <c r="K17">
-        <v>0.9831704400820471</v>
+        <v>0.9833043636520421</v>
       </c>
       <c r="L17">
-        <v>0.9637244045997094</v>
+        <v>0.9638888050282113</v>
       </c>
       <c r="M17">
-        <v>0.9612723787463043</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>0.9614327176985162</v>
+      </c>
+      <c r="N17">
+        <v>0.9687261111305761</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1029,37 +1077,40 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9407280134388417</v>
+        <v>0.9408906951174385</v>
       </c>
       <c r="D18">
-        <v>0.9713413483749537</v>
+        <v>0.9714718663312736</v>
       </c>
       <c r="E18">
-        <v>0.9520932197241213</v>
+        <v>0.9522535924936399</v>
       </c>
       <c r="F18">
-        <v>0.9497603203986381</v>
+        <v>0.9499166510090217</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.023371593224482</v>
+        <v>1.023437532884496</v>
       </c>
       <c r="J18">
-        <v>0.9702336730388501</v>
+        <v>0.9703890451052647</v>
       </c>
       <c r="K18">
-        <v>0.9856738098728272</v>
+        <v>0.9858018985608757</v>
       </c>
       <c r="L18">
-        <v>0.9667935091111222</v>
+        <v>0.9669507365604414</v>
       </c>
       <c r="M18">
-        <v>0.9645065216715596</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>0.9646597664081441</v>
+      </c>
+      <c r="N18">
+        <v>0.9710259931441351</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1067,37 +1118,40 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9419052889285188</v>
+        <v>0.9420654556268236</v>
       </c>
       <c r="D19">
-        <v>0.9722683882382281</v>
+        <v>0.9723969143770427</v>
       </c>
       <c r="E19">
-        <v>0.9532175479783228</v>
+        <v>0.9533754665650548</v>
       </c>
       <c r="F19">
-        <v>0.9509418429037463</v>
+        <v>0.9510957474679096</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.023804164257413</v>
+        <v>1.023869105618545</v>
       </c>
       <c r="J19">
-        <v>0.9712094111184845</v>
+        <v>0.971362449547741</v>
       </c>
       <c r="K19">
-        <v>0.9865163930900702</v>
+        <v>0.9866425458925949</v>
       </c>
       <c r="L19">
-        <v>0.9678266236206851</v>
+        <v>0.9679814714033461</v>
       </c>
       <c r="M19">
-        <v>0.9655953193436486</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>0.9657462123190554</v>
+      </c>
+      <c r="N19">
+        <v>0.9717996447103506</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1105,37 +1159,40 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9365798957725454</v>
+        <v>0.9367515994392642</v>
       </c>
       <c r="D20">
-        <v>0.9680761865964173</v>
+        <v>0.9682138434753712</v>
       </c>
       <c r="E20">
-        <v>0.9481327526005494</v>
+        <v>0.948301923171498</v>
       </c>
       <c r="F20">
-        <v>0.9455986878739411</v>
+        <v>0.9457637230736498</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.021846124740742</v>
+        <v>1.021915640971139</v>
       </c>
       <c r="J20">
-        <v>0.966795161401199</v>
+        <v>0.966958889773919</v>
       </c>
       <c r="K20">
-        <v>0.9827046069360098</v>
+        <v>0.982839630315591</v>
       </c>
       <c r="L20">
-        <v>0.9631533526606745</v>
+        <v>0.9633191052009216</v>
       </c>
       <c r="M20">
-        <v>0.9606706807207661</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>0.9608323578298121</v>
+      </c>
+      <c r="N20">
+        <v>0.9682979301372135</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1143,37 +1200,40 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9180812859001587</v>
+        <v>0.9182965793750014</v>
       </c>
       <c r="D21">
-        <v>0.9535406123631888</v>
+        <v>0.9537126253914635</v>
       </c>
       <c r="E21">
-        <v>0.9304919878079426</v>
+        <v>0.9307035352360179</v>
       </c>
       <c r="F21">
-        <v>0.9270668038194371</v>
+        <v>0.927273927395923</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.015021942572112</v>
+        <v>1.015108641652067</v>
       </c>
       <c r="J21">
-        <v>0.9514535544767261</v>
+        <v>0.9516573396437381</v>
       </c>
       <c r="K21">
-        <v>0.9694590745060333</v>
+        <v>0.9696273946643978</v>
       </c>
       <c r="L21">
-        <v>0.9469217742428855</v>
+        <v>0.9471284747202083</v>
       </c>
       <c r="M21">
-        <v>0.9435754794115244</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>0.9437778103592114</v>
+      </c>
+      <c r="N21">
+        <v>0.9560968059367393</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1181,37 +1241,40 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9053553484369431</v>
+        <v>0.9056043238956399</v>
       </c>
       <c r="D22">
-        <v>0.9435675161418219</v>
+        <v>0.9437659293660913</v>
       </c>
       <c r="E22">
-        <v>0.9183766351094508</v>
+        <v>0.9186207879481706</v>
       </c>
       <c r="F22">
-        <v>0.9143430279551545</v>
+        <v>0.9145827036077359</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.010311612510405</v>
+        <v>1.010411485975555</v>
       </c>
       <c r="J22">
-        <v>0.9408951817931968</v>
+        <v>0.9411295882985679</v>
       </c>
       <c r="K22">
-        <v>0.9603464073543301</v>
+        <v>0.9605402369222146</v>
       </c>
       <c r="L22">
-        <v>0.935759178805341</v>
+        <v>0.9359972667417297</v>
       </c>
       <c r="M22">
-        <v>0.9318264016621983</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>0.9320600524833179</v>
+      </c>
+      <c r="N22">
+        <v>0.9476759856399559</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1219,37 +1282,40 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9122196971464533</v>
+        <v>0.9124500904287142</v>
       </c>
       <c r="D23">
-        <v>0.9489441419788056</v>
+        <v>0.9491280056605012</v>
       </c>
       <c r="E23">
-        <v>0.9249095270618232</v>
+        <v>0.9251357060916654</v>
       </c>
       <c r="F23">
-        <v>0.9212037053937443</v>
+        <v>0.9214254193815967</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.012853650317651</v>
+        <v>1.012946266093521</v>
       </c>
       <c r="J23">
-        <v>0.9465905918574734</v>
+        <v>0.9468081383497593</v>
       </c>
       <c r="K23">
-        <v>0.9652615818055404</v>
+        <v>0.9654413603688288</v>
       </c>
       <c r="L23">
-        <v>0.9417797423434736</v>
+        <v>0.9420005398190164</v>
       </c>
       <c r="M23">
-        <v>0.938162600084723</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>0.9383789815671006</v>
+      </c>
+      <c r="N23">
+        <v>0.9522204938615232</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1257,37 +1323,40 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9368742286244107</v>
+        <v>0.9370452837229633</v>
       </c>
       <c r="D24">
-        <v>0.9683078032923477</v>
+        <v>0.968444947300276</v>
       </c>
       <c r="E24">
-        <v>0.9484137143521035</v>
+        <v>0.9485822527867652</v>
       </c>
       <c r="F24">
-        <v>0.9458939055694523</v>
+        <v>0.9460583149346793</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.021954430644132</v>
+        <v>1.022023690003038</v>
       </c>
       <c r="J24">
-        <v>0.9670391684732464</v>
+        <v>0.9672022969143043</v>
       </c>
       <c r="K24">
-        <v>0.9829153063889761</v>
+        <v>0.9830498317631644</v>
       </c>
       <c r="L24">
-        <v>0.9634116412344772</v>
+        <v>0.963576781520884</v>
       </c>
       <c r="M24">
-        <v>0.9609428282497309</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>0.9611038993890786</v>
+      </c>
+      <c r="N24">
+        <v>0.9684916074661696</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1295,34 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9618084597552875</v>
+        <v>0.9619288756866725</v>
       </c>
       <c r="D25">
-        <v>0.9879629591384886</v>
+        <v>0.9880598990445028</v>
       </c>
       <c r="E25">
-        <v>0.9722460461777024</v>
+        <v>0.9723650739462021</v>
       </c>
       <c r="F25">
-        <v>0.9709450119694361</v>
+        <v>0.9710606008601941</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.031088256450757</v>
+        <v>1.031137341073365</v>
       </c>
       <c r="J25">
-        <v>0.9876932111478672</v>
+        <v>0.9878091084314553</v>
       </c>
       <c r="K25">
-        <v>1.000751053601804</v>
+        <v>1.000846441452157</v>
       </c>
       <c r="L25">
-        <v>0.9852910487709798</v>
+        <v>0.9854080907091241</v>
       </c>
       <c r="M25">
-        <v>0.9840117616179427</v>
+        <v>0.9841254153766685</v>
+      </c>
+      <c r="N25">
+        <v>0.9848335464331015</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_26/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_26/res_bus/vm_pu.xlsx
@@ -421,37 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9796431335409783</v>
+        <v>1.040702045620167</v>
       </c>
       <c r="D2">
-        <v>1.002058086787027</v>
+        <v>1.05158923431598</v>
       </c>
       <c r="E2">
-        <v>0.9893320834674414</v>
+        <v>1.057178230946975</v>
       </c>
       <c r="F2">
-        <v>0.9889121609078979</v>
+        <v>1.061304669490768</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.037561531224404</v>
+        <v>1.053364593026653</v>
       </c>
       <c r="J2">
-        <v>1.002450243636601</v>
+        <v>1.061729967429979</v>
       </c>
       <c r="K2">
-        <v>1.01348882346581</v>
+        <v>1.062373759386086</v>
       </c>
       <c r="L2">
-        <v>1.000942067592029</v>
+        <v>1.067894564389681</v>
       </c>
       <c r="M2">
-        <v>1.000528159228259</v>
+        <v>1.071971227992031</v>
       </c>
       <c r="N2">
-        <v>0.996367349971429</v>
+        <v>1.063237745765859</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9915418488946042</v>
+        <v>1.053830096018557</v>
       </c>
       <c r="D3">
-        <v>1.011472964526662</v>
+        <v>1.062304445558785</v>
       </c>
       <c r="E3">
-        <v>1.000745621023845</v>
+        <v>1.069709421545815</v>
       </c>
       <c r="F3">
-        <v>1.000929681626599</v>
+        <v>1.073518984260854</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.04183715427592</v>
+        <v>1.057673470596139</v>
       </c>
       <c r="J3">
-        <v>1.012265777808976</v>
+        <v>1.072953615309421</v>
       </c>
       <c r="K3">
-        <v>1.02196112146032</v>
+        <v>1.072197678843891</v>
       </c>
       <c r="L3">
-        <v>1.011368970371547</v>
+        <v>1.079521780390225</v>
       </c>
       <c r="M3">
-        <v>1.011550680807593</v>
+        <v>1.083290269135988</v>
       </c>
       <c r="N3">
-        <v>1.004055872453572</v>
+        <v>1.07447733251266</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9988626933132341</v>
+        <v>1.061928446494208</v>
       </c>
       <c r="D4">
-        <v>1.017269304875144</v>
+        <v>1.068914376378802</v>
       </c>
       <c r="E4">
-        <v>1.00777463668917</v>
+        <v>1.077445618671634</v>
       </c>
       <c r="F4">
-        <v>1.008334930096009</v>
+        <v>1.081059233677553</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.04444878345792</v>
+        <v>1.060313258606607</v>
       </c>
       <c r="J4">
-        <v>1.018295536321969</v>
+        <v>1.079870531801321</v>
       </c>
       <c r="K4">
-        <v>1.027163678444756</v>
+        <v>1.078246561820603</v>
       </c>
       <c r="L4">
-        <v>1.017780125645646</v>
+        <v>1.086691251989595</v>
       </c>
       <c r="M4">
-        <v>1.01833379002645</v>
+        <v>1.090268706382481</v>
       </c>
       <c r="N4">
-        <v>1.008758918599505</v>
+        <v>1.08140407181936</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.001858109563524</v>
+        <v>1.065246716429387</v>
       </c>
       <c r="D5">
-        <v>1.019641594465629</v>
+        <v>1.071622549273837</v>
       </c>
       <c r="E5">
-        <v>1.010652120426383</v>
+        <v>1.080616792640461</v>
       </c>
       <c r="F5">
-        <v>1.01136747517829</v>
+        <v>1.084149975620631</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.045512701377928</v>
+        <v>1.061390382483353</v>
       </c>
       <c r="J5">
-        <v>1.020760356654939</v>
+        <v>1.082703005312425</v>
       </c>
       <c r="K5">
-        <v>1.029289798366919</v>
+        <v>1.08072222451804</v>
       </c>
       <c r="L5">
-        <v>1.020402242074566</v>
+        <v>1.089628054835286</v>
       </c>
       <c r="M5">
-        <v>1.02110940465244</v>
+        <v>1.093126992907659</v>
       </c>
       <c r="N5">
-        <v>1.010676611474492</v>
+        <v>1.084240567767739</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.002356447921703</v>
+        <v>1.065799036463778</v>
       </c>
       <c r="D6">
-        <v>1.020036296393919</v>
+        <v>1.072073300750895</v>
       </c>
       <c r="E6">
-        <v>1.011130921939841</v>
+        <v>1.081144700978145</v>
       </c>
       <c r="F6">
-        <v>1.011872140068285</v>
+        <v>1.084664486992598</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.045689424852387</v>
+        <v>1.061569397955925</v>
       </c>
       <c r="J6">
-        <v>1.021170281942989</v>
+        <v>1.083174361934528</v>
       </c>
       <c r="K6">
-        <v>1.029643359340296</v>
+        <v>1.08113412264948</v>
       </c>
       <c r="L6">
-        <v>1.02083840899198</v>
+        <v>1.090116826159851</v>
       </c>
       <c r="M6">
-        <v>1.021571185389358</v>
+        <v>1.093602680694899</v>
       </c>
       <c r="N6">
-        <v>1.010995261658088</v>
+        <v>1.084712593770311</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9989030313900797</v>
+        <v>1.0619731139376</v>
       </c>
       <c r="D7">
-        <v>1.017301249301421</v>
+        <v>1.068950832423264</v>
       </c>
       <c r="E7">
-        <v>1.007813380923538</v>
+        <v>1.077488301091198</v>
       </c>
       <c r="F7">
-        <v>1.008375758011634</v>
+        <v>1.08110083400075</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.044463129476172</v>
+        <v>1.060327775965589</v>
       </c>
       <c r="J7">
-        <v>1.018328738440358</v>
+        <v>1.079908666827191</v>
       </c>
       <c r="K7">
-        <v>1.027192320448504</v>
+        <v>1.078279898357595</v>
       </c>
       <c r="L7">
-        <v>1.017815441088377</v>
+        <v>1.086730788063821</v>
       </c>
       <c r="M7">
-        <v>1.018371167379838</v>
+        <v>1.090307186521094</v>
       </c>
       <c r="N7">
-        <v>1.008784769749061</v>
+        <v>1.081442261001341</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9837481545792001</v>
+        <v>1.045226419438977</v>
       </c>
       <c r="D8">
-        <v>1.005305232215218</v>
+        <v>1.055281913286959</v>
       </c>
       <c r="E8">
-        <v>0.9932682015483152</v>
+        <v>1.061495515235991</v>
       </c>
       <c r="F8">
-        <v>0.9930556696282203</v>
+        <v>1.065512829546289</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.039040607312165</v>
+        <v>1.05485338224756</v>
       </c>
       <c r="J8">
-        <v>1.00583852646289</v>
+        <v>1.065599367045678</v>
       </c>
       <c r="K8">
-        <v>1.016413817129293</v>
+        <v>1.065761716761155</v>
       </c>
       <c r="L8">
-        <v>1.004540138125412</v>
+        <v>1.07190226463008</v>
       </c>
       <c r="M8">
-        <v>1.00433053526259</v>
+        <v>1.075872907318668</v>
       </c>
       <c r="N8">
-        <v>0.99902570799858</v>
+        <v>1.067112640372839</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9536848638321676</v>
+        <v>1.012207876247743</v>
       </c>
       <c r="D9">
-        <v>0.9815544352023601</v>
+        <v>1.028344788175546</v>
       </c>
       <c r="E9">
-        <v>0.9644790733210167</v>
+        <v>1.030023531133197</v>
       </c>
       <c r="F9">
-        <v>0.9627679601106315</v>
+        <v>1.03483664451448</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.028127922609538</v>
+        <v>1.043913700496212</v>
       </c>
       <c r="J9">
-        <v>0.980986252906886</v>
+        <v>1.037336787559543</v>
       </c>
       <c r="K9">
-        <v>0.9949540402707918</v>
+        <v>1.040994140844526</v>
       </c>
       <c r="L9">
-        <v>0.9781760009176208</v>
+        <v>1.042647579246272</v>
       </c>
       <c r="M9">
-        <v>0.9764954373049107</v>
+        <v>1.047388720774044</v>
       </c>
       <c r="N9">
-        <v>0.9794355215902631</v>
+        <v>1.03880992478207</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9305483439466942</v>
+        <v>0.9869853348764265</v>
       </c>
       <c r="D10">
-        <v>0.9633348178598691</v>
+        <v>1.007801143543421</v>
       </c>
       <c r="E10">
-        <v>0.9423827611648766</v>
+        <v>1.006040950000107</v>
       </c>
       <c r="F10">
-        <v>0.9395439122643529</v>
+        <v>1.011463589876846</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.019631233846122</v>
+        <v>1.035470149819564</v>
       </c>
       <c r="J10">
-        <v>0.9618168032788269</v>
+        <v>1.015725004149787</v>
       </c>
       <c r="K10">
-        <v>0.9783992067169491</v>
+        <v>1.022030960128343</v>
       </c>
       <c r="L10">
-        <v>0.957876535046231</v>
+        <v>1.020301983168013</v>
       </c>
       <c r="M10">
-        <v>0.955097816391568</v>
+        <v>1.025628905094122</v>
       </c>
       <c r="N10">
-        <v>0.9642032692573982</v>
+        <v>1.017167450160966</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9195248826611467</v>
+        <v>0.975030341016116</v>
       </c>
       <c r="D11">
-        <v>0.9546764141610983</v>
+        <v>0.998079458062917</v>
       </c>
       <c r="E11">
-        <v>0.9318737452349419</v>
+        <v>0.9946929186918069</v>
       </c>
       <c r="F11">
-        <v>0.9285031998439383</v>
+        <v>1.000405873350826</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.015562623860423</v>
+        <v>1.031451950656537</v>
       </c>
       <c r="J11">
-        <v>0.9526760447256696</v>
+        <v>1.005480087894034</v>
       </c>
       <c r="K11">
-        <v>0.9705068589546202</v>
+        <v>1.013037684104007</v>
       </c>
       <c r="L11">
-        <v>0.9482059106297264</v>
+        <v>1.009715617617952</v>
       </c>
       <c r="M11">
-        <v>0.9449123201885083</v>
+        <v>1.015320139551867</v>
       </c>
       <c r="N11">
-        <v>0.9569105766300217</v>
+        <v>1.006907984949022</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9152464898654423</v>
+        <v>0.9704020690427113</v>
       </c>
       <c r="D12">
-        <v>0.9513202582487492</v>
+        <v>0.9943190185281716</v>
       </c>
       <c r="E12">
-        <v>0.9277983772360299</v>
+        <v>0.9903031235165726</v>
       </c>
       <c r="F12">
-        <v>0.9242222507652784</v>
+        <v>0.9961288023981381</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.013980839007855</v>
+        <v>1.029894452053117</v>
       </c>
       <c r="J12">
-        <v>0.9491275982311246</v>
+        <v>1.001514123613631</v>
       </c>
       <c r="K12">
-        <v>0.9674435390482188</v>
+        <v>1.009555872550058</v>
       </c>
       <c r="L12">
-        <v>0.9444531530863378</v>
+        <v>1.005618488589385</v>
       </c>
       <c r="M12">
-        <v>0.9409610085426835</v>
+        <v>1.011330546162101</v>
       </c>
       <c r="N12">
-        <v>0.9540751371436758</v>
+        <v>1.002936388544438</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9161731851620188</v>
+        <v>0.9714039761159619</v>
       </c>
       <c r="D13">
-        <v>0.9520469858049416</v>
+        <v>0.995132899303413</v>
       </c>
       <c r="E13">
-        <v>0.9286809364555395</v>
+        <v>0.9912532374894232</v>
       </c>
       <c r="F13">
-        <v>0.9251493049071867</v>
+        <v>0.9970544971596341</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.014323565681644</v>
+        <v>1.030231686883049</v>
       </c>
       <c r="J13">
-        <v>0.9498962153492482</v>
+        <v>1.002372636340608</v>
       </c>
       <c r="K13">
-        <v>0.9681070477677578</v>
+        <v>1.010309593550731</v>
       </c>
       <c r="L13">
-        <v>0.9452659625408056</v>
+        <v>1.006505347929148</v>
       </c>
       <c r="M13">
-        <v>0.9418167668783949</v>
+        <v>1.012194122355813</v>
       </c>
       <c r="N13">
-        <v>0.9546895103096975</v>
+        <v>1.00379612045796</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9191752079215548</v>
+        <v>0.9746518194617421</v>
       </c>
       <c r="D14">
-        <v>0.954402021020098</v>
+        <v>0.9977718410269104</v>
       </c>
       <c r="E14">
-        <v>0.9315405926930594</v>
+        <v>0.9943338264702906</v>
       </c>
       <c r="F14">
-        <v>0.9281532298700459</v>
+        <v>1.000055992766449</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.015433395516446</v>
+        <v>1.031324605586305</v>
       </c>
       <c r="J14">
-        <v>0.9523860417056974</v>
+        <v>1.005155724398709</v>
       </c>
       <c r="K14">
-        <v>0.9702564922289142</v>
+        <v>1.012752924053297</v>
       </c>
       <c r="L14">
-        <v>0.9478991819040267</v>
+        <v>1.009380505802521</v>
       </c>
       <c r="M14">
-        <v>0.944589337771047</v>
+        <v>1.014993820697975</v>
       </c>
       <c r="N14">
-        <v>0.9566789339955293</v>
+        <v>1.006583160820329</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9209993323220224</v>
+        <v>0.9766269120147091</v>
       </c>
       <c r="D15">
-        <v>0.9558336089317986</v>
+        <v>0.9993770956736479</v>
       </c>
       <c r="E15">
-        <v>0.9332786654593253</v>
+        <v>0.996207683185503</v>
       </c>
       <c r="F15">
-        <v>0.9299790638800955</v>
+        <v>1.001881798090366</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.016107426575254</v>
+        <v>1.031989008643387</v>
       </c>
       <c r="J15">
-        <v>0.9538988524081121</v>
+        <v>1.006848238743472</v>
       </c>
       <c r="K15">
-        <v>0.9715625602605267</v>
+        <v>1.014238775631381</v>
       </c>
       <c r="L15">
-        <v>0.9494992986545785</v>
+        <v>1.011129145622126</v>
       </c>
       <c r="M15">
-        <v>0.9462742954994319</v>
+        <v>1.016696582715291</v>
       </c>
       <c r="N15">
-        <v>0.957887128369515</v>
+        <v>1.008278078729595</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,37 +995,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9312561952062679</v>
+        <v>0.9877544325574392</v>
       </c>
       <c r="D16">
-        <v>0.9638913268525117</v>
+        <v>1.008426949989352</v>
       </c>
       <c r="E16">
-        <v>0.94305799954973</v>
+        <v>1.006771436472223</v>
       </c>
       <c r="F16">
-        <v>0.9402534013773604</v>
+        <v>1.012175437297797</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.019892108770791</v>
+        <v>1.035728365655547</v>
       </c>
       <c r="J16">
-        <v>0.962403636755805</v>
+        <v>1.016384096058914</v>
       </c>
       <c r="K16">
-        <v>0.9789059448637125</v>
+        <v>1.022609466362555</v>
       </c>
       <c r="L16">
-        <v>0.9584975698682928</v>
+        <v>1.020983175720973</v>
       </c>
       <c r="M16">
-        <v>0.9557520833896327</v>
+        <v>1.026292243409739</v>
       </c>
       <c r="N16">
-        <v>0.9646708633515443</v>
+        <v>1.017827478056203</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,37 +1036,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9374009092378985</v>
+        <v>0.994437819044257</v>
       </c>
       <c r="D17">
-        <v>0.9687248068936727</v>
+        <v>1.013866941720294</v>
       </c>
       <c r="E17">
-        <v>0.9489217184755547</v>
+        <v>1.013121463995908</v>
       </c>
       <c r="F17">
-        <v>0.9464150545060994</v>
+        <v>1.018363658726666</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.022154514736906</v>
+        <v>1.037970512310535</v>
       </c>
       <c r="J17">
-        <v>0.967497036389895</v>
+        <v>1.022111434561704</v>
       </c>
       <c r="K17">
-        <v>0.9833043636520421</v>
+        <v>1.027636124640536</v>
       </c>
       <c r="L17">
-        <v>0.9638888050282113</v>
+        <v>1.026903272488497</v>
       </c>
       <c r="M17">
-        <v>0.9614327176985162</v>
+        <v>1.032057189507697</v>
       </c>
       <c r="N17">
-        <v>0.9687261111305761</v>
+        <v>1.023562950036602</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,37 +1077,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9408906951174385</v>
+        <v>0.9982390298923332</v>
       </c>
       <c r="D18">
-        <v>0.9714718663312736</v>
+        <v>1.016962324328353</v>
       </c>
       <c r="E18">
-        <v>0.9522535924936399</v>
+        <v>1.016734787124294</v>
       </c>
       <c r="F18">
-        <v>0.9499166510090217</v>
+        <v>1.021885073762397</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.023437532884496</v>
+        <v>1.039244234545001</v>
       </c>
       <c r="J18">
-        <v>0.9703890451052647</v>
+        <v>1.025368730027872</v>
       </c>
       <c r="K18">
-        <v>0.9858018985608757</v>
+        <v>1.03049455138473</v>
       </c>
       <c r="L18">
-        <v>0.9669507365604414</v>
+        <v>1.030270776036545</v>
       </c>
       <c r="M18">
-        <v>0.9646597664081441</v>
+        <v>1.035336440523678</v>
       </c>
       <c r="N18">
-        <v>0.9710259931441351</v>
+        <v>1.026824871235949</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,37 +1118,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9420654556268236</v>
+        <v>0.9995195050566391</v>
       </c>
       <c r="D19">
-        <v>0.9723969143770427</v>
+        <v>1.018005243227511</v>
       </c>
       <c r="E19">
-        <v>0.9533754665650548</v>
+        <v>1.017952246032076</v>
       </c>
       <c r="F19">
-        <v>0.9510957474679096</v>
+        <v>1.023071589962522</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.023869105618545</v>
+        <v>1.03967303099169</v>
       </c>
       <c r="J19">
-        <v>0.971362449547741</v>
+        <v>1.026465943734672</v>
       </c>
       <c r="K19">
-        <v>0.9866425458925949</v>
+        <v>1.031457338561523</v>
       </c>
       <c r="L19">
-        <v>0.9679814714033461</v>
+        <v>1.031405210396898</v>
       </c>
       <c r="M19">
-        <v>0.9657462123190554</v>
+        <v>1.036441142723089</v>
       </c>
       <c r="N19">
-        <v>0.9717996447103506</v>
+        <v>1.027923643112065</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,37 +1159,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9367515994392642</v>
+        <v>0.9937310007542058</v>
       </c>
       <c r="D20">
-        <v>0.9682138434753712</v>
+        <v>1.013291474496883</v>
       </c>
       <c r="E20">
-        <v>0.948301923171498</v>
+        <v>1.012449718475201</v>
       </c>
       <c r="F20">
-        <v>0.9457637230736498</v>
+        <v>1.017709012166878</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.021915640971139</v>
+        <v>1.037733542954686</v>
       </c>
       <c r="J20">
-        <v>0.966958889773919</v>
+        <v>1.021505739218102</v>
       </c>
       <c r="K20">
-        <v>0.982839630315591</v>
+        <v>1.027104567445241</v>
       </c>
       <c r="L20">
-        <v>0.9633191052009216</v>
+        <v>1.026277130958715</v>
       </c>
       <c r="M20">
-        <v>0.9608323578298121</v>
+        <v>1.031447456910292</v>
       </c>
       <c r="N20">
-        <v>0.9682979301372135</v>
+        <v>1.022956394536138</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C21">
-        <v>0.9182965793750014</v>
+        <v>0.9737009032585077</v>
       </c>
       <c r="D21">
-        <v>0.9537126253914635</v>
+        <v>0.9969991050993833</v>
       </c>
       <c r="E21">
-        <v>0.9307035352360179</v>
+        <v>0.9934317785812115</v>
       </c>
       <c r="F21">
-        <v>0.927273927395923</v>
+        <v>0.999177091977476</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.015108641652067</v>
+        <v>1.031004663109736</v>
       </c>
       <c r="J21">
-        <v>0.9516573396437381</v>
+        <v>1.004340869357941</v>
       </c>
       <c r="K21">
-        <v>0.9696273946643978</v>
+        <v>1.012037554261572</v>
       </c>
       <c r="L21">
-        <v>0.9471284747202083</v>
+        <v>1.008538665624783</v>
       </c>
       <c r="M21">
-        <v>0.9437778103592114</v>
+        <v>1.014174071392923</v>
       </c>
       <c r="N21">
-        <v>0.9560968059367393</v>
+        <v>1.005767148591937</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,37 +1241,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9056043238956399</v>
+        <v>0.9599967580050661</v>
       </c>
       <c r="D22">
-        <v>0.9437659293660913</v>
+        <v>0.985872031503032</v>
       </c>
       <c r="E22">
-        <v>0.9186207879481706</v>
+        <v>0.9804413276249365</v>
       </c>
       <c r="F22">
-        <v>0.9145827036077359</v>
+        <v>0.9865212205660252</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.010411485975555</v>
+        <v>1.026390100752077</v>
       </c>
       <c r="J22">
-        <v>0.9411295882985679</v>
+        <v>0.9925989810235623</v>
       </c>
       <c r="K22">
-        <v>0.9605402369222146</v>
+        <v>1.001728659547494</v>
       </c>
       <c r="L22">
-        <v>0.9359972667417297</v>
+        <v>0.9964104645224758</v>
       </c>
       <c r="M22">
-        <v>0.9320600524833179</v>
+        <v>1.002364508594962</v>
       </c>
       <c r="N22">
-        <v>0.9476759856399559</v>
+        <v>0.9940085854293101</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9124500904287142</v>
+        <v>0.96738065990745</v>
       </c>
       <c r="D23">
-        <v>0.9491280056605012</v>
+        <v>0.9918651890986007</v>
       </c>
       <c r="E23">
-        <v>0.9251357060916654</v>
+        <v>0.9874384746433875</v>
       </c>
       <c r="F23">
-        <v>0.9214254193815967</v>
+        <v>0.9933378534672587</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.012946266093521</v>
+        <v>1.028877240589384</v>
       </c>
       <c r="J23">
-        <v>0.9468081383497593</v>
+        <v>0.9989252266984783</v>
       </c>
       <c r="K23">
-        <v>0.9654413603688288</v>
+        <v>1.007282946266587</v>
       </c>
       <c r="L23">
-        <v>0.9420005398190164</v>
+        <v>1.002944264537124</v>
       </c>
       <c r="M23">
-        <v>0.9383789815671006</v>
+        <v>1.008726552578807</v>
       </c>
       <c r="N23">
-        <v>0.9522204938615232</v>
+        <v>1.000343815098715</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,37 +1323,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9370452837229633</v>
+        <v>0.994050679239516</v>
       </c>
       <c r="D24">
-        <v>0.968444947300276</v>
+        <v>1.013551741578493</v>
       </c>
       <c r="E24">
-        <v>0.9485822527867652</v>
+        <v>1.012753529008055</v>
       </c>
       <c r="F24">
-        <v>0.9460583149346793</v>
+        <v>1.018005088846489</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.022023690003038</v>
+        <v>1.037840723775563</v>
       </c>
       <c r="J24">
-        <v>0.9672022969143043</v>
+        <v>1.021779682527818</v>
       </c>
       <c r="K24">
-        <v>0.9830498317631644</v>
+        <v>1.027344980802212</v>
       </c>
       <c r="L24">
-        <v>0.963576781520884</v>
+        <v>1.026560319838733</v>
       </c>
       <c r="M24">
-        <v>0.9611038993890786</v>
+        <v>1.03172322442387</v>
       </c>
       <c r="N24">
-        <v>0.9684916074661696</v>
+        <v>1.023230726876775</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1364,37 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9619288756866725</v>
+        <v>1.021235445266359</v>
       </c>
       <c r="D25">
-        <v>0.9880598990445028</v>
+        <v>1.035706096433279</v>
       </c>
       <c r="E25">
-        <v>0.9723650739462021</v>
+        <v>1.038619964947015</v>
       </c>
       <c r="F25">
-        <v>0.9710606008601941</v>
+        <v>1.04321549138017</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.031137341073365</v>
+        <v>1.046920171405776</v>
       </c>
       <c r="J25">
-        <v>0.9878091084314553</v>
+        <v>1.045068693192133</v>
       </c>
       <c r="K25">
-        <v>1.000846441452157</v>
+        <v>1.047774300842801</v>
       </c>
       <c r="L25">
-        <v>0.9854080907091241</v>
+        <v>1.050646941918599</v>
       </c>
       <c r="M25">
-        <v>0.9841254153766685</v>
+        <v>1.055178038401004</v>
       </c>
       <c r="N25">
-        <v>0.9848335464331015</v>
+        <v>1.04655281060752</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_26/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_26/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:18">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -412,197 +412,1289 @@
       <c r="N1" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="1">
         <v>0</v>
       </c>
+      <c r="B2">
+        <v>1.05</v>
+      </c>
+      <c r="C2">
+        <v>1.019027912848509</v>
+      </c>
+      <c r="D2">
+        <v>1.036159807087731</v>
+      </c>
+      <c r="E2">
+        <v>1.036582816041397</v>
+      </c>
+      <c r="F2">
+        <v>1.042982202231671</v>
+      </c>
       <c r="G2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:14">
+      <c r="I2">
+        <v>1.049313318853804</v>
+      </c>
+      <c r="J2">
+        <v>1.040654024265857</v>
+      </c>
+      <c r="K2">
+        <v>1.047137355615789</v>
+      </c>
+      <c r="L2">
+        <v>1.047554977019701</v>
+      </c>
+      <c r="M2">
+        <v>1.053873523841657</v>
+      </c>
+      <c r="N2">
+        <v>1.016457998739316</v>
+      </c>
+      <c r="O2">
+        <v>1.03</v>
+      </c>
+      <c r="P2">
+        <v>1.051209592788383</v>
+      </c>
+      <c r="Q2">
+        <v>1.02</v>
+      </c>
+      <c r="R2">
+        <v>1.044400461303334</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="1">
         <v>1</v>
       </c>
+      <c r="B3">
+        <v>1.05</v>
+      </c>
+      <c r="C3">
+        <v>1.023903677231243</v>
+      </c>
+      <c r="D3">
+        <v>1.039457255141723</v>
+      </c>
+      <c r="E3">
+        <v>1.040730843189776</v>
+      </c>
+      <c r="F3">
+        <v>1.046609647165108</v>
+      </c>
       <c r="G3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:14">
+      <c r="I3">
+        <v>1.050280268233807</v>
+      </c>
+      <c r="J3">
+        <v>1.043763256011928</v>
+      </c>
+      <c r="K3">
+        <v>1.049608988183287</v>
+      </c>
+      <c r="L3">
+        <v>1.050867797449783</v>
+      </c>
+      <c r="M3">
+        <v>1.056678958803111</v>
+      </c>
+      <c r="N3">
+        <v>1.017590234889616</v>
+      </c>
+      <c r="O3">
+        <v>1.03</v>
+      </c>
+      <c r="P3">
+        <v>1.053429870824424</v>
+      </c>
+      <c r="Q3">
+        <v>1.02</v>
+      </c>
+      <c r="R3">
+        <v>1.046145452691779</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="1">
         <v>2</v>
       </c>
+      <c r="B4">
+        <v>1.05</v>
+      </c>
+      <c r="C4">
+        <v>1.02699463578805</v>
+      </c>
+      <c r="D4">
+        <v>1.041550540027046</v>
+      </c>
+      <c r="E4">
+        <v>1.043366465322644</v>
+      </c>
+      <c r="F4">
+        <v>1.048915845352005</v>
+      </c>
       <c r="G4">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:14">
+      <c r="I4">
+        <v>1.050882459332074</v>
+      </c>
+      <c r="J4">
+        <v>1.045732145560715</v>
+      </c>
+      <c r="K4">
+        <v>1.051172073455085</v>
+      </c>
+      <c r="L4">
+        <v>1.052968220282938</v>
+      </c>
+      <c r="M4">
+        <v>1.058457678361656</v>
+      </c>
+      <c r="N4">
+        <v>1.018306191088337</v>
+      </c>
+      <c r="O4">
+        <v>1.03</v>
+      </c>
+      <c r="P4">
+        <v>1.054837582116468</v>
+      </c>
+      <c r="Q4">
+        <v>1.02</v>
+      </c>
+      <c r="R4">
+        <v>1.047251558055275</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="1">
         <v>3</v>
       </c>
+      <c r="B5">
+        <v>1.05</v>
+      </c>
+      <c r="C5">
+        <v>1.02828506023367</v>
+      </c>
+      <c r="D5">
+        <v>1.042427271370952</v>
+      </c>
+      <c r="E5">
+        <v>1.04446877999409</v>
+      </c>
+      <c r="F5">
+        <v>1.049880802100098</v>
+      </c>
       <c r="G5">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:14">
+      <c r="I5">
+        <v>1.05113319305446</v>
+      </c>
+      <c r="J5">
+        <v>1.046555511131501</v>
+      </c>
+      <c r="K5">
+        <v>1.051826788706389</v>
+      </c>
+      <c r="L5">
+        <v>1.053846664084844</v>
+      </c>
+      <c r="M5">
+        <v>1.059201834066538</v>
+      </c>
+      <c r="N5">
+        <v>1.018606276455178</v>
+      </c>
+      <c r="O5">
+        <v>1.03</v>
+      </c>
+      <c r="P5">
+        <v>1.055426519818754</v>
+      </c>
+      <c r="Q5">
+        <v>1.02</v>
+      </c>
+      <c r="R5">
+        <v>1.047721585875717</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="1">
         <v>4</v>
       </c>
+      <c r="B6">
+        <v>1.05</v>
+      </c>
+      <c r="C6">
+        <v>1.028507870450734</v>
+      </c>
+      <c r="D6">
+        <v>1.042581340337912</v>
+      </c>
+      <c r="E6">
+        <v>1.044659901817809</v>
+      </c>
+      <c r="F6">
+        <v>1.050048259488434</v>
+      </c>
       <c r="G6">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:14">
+      <c r="I6">
+        <v>1.051178730820576</v>
+      </c>
+      <c r="J6">
+        <v>1.04670001471823</v>
+      </c>
+      <c r="K6">
+        <v>1.05194355620786</v>
+      </c>
+      <c r="L6">
+        <v>1.054000194558064</v>
+      </c>
+      <c r="M6">
+        <v>1.059332213307762</v>
+      </c>
+      <c r="N6">
+        <v>1.01866006869209</v>
+      </c>
+      <c r="O6">
+        <v>1.03</v>
+      </c>
+      <c r="P6">
+        <v>1.055529704159475</v>
+      </c>
+      <c r="Q6">
+        <v>1.02</v>
+      </c>
+      <c r="R6">
+        <v>1.047812802600835</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="1">
         <v>5</v>
       </c>
+      <c r="B7">
+        <v>1.05</v>
+      </c>
+      <c r="C7">
+        <v>1.027030861345687</v>
+      </c>
+      <c r="D7">
+        <v>1.041582281319301</v>
+      </c>
+      <c r="E7">
+        <v>1.04339931608667</v>
+      </c>
+      <c r="F7">
+        <v>1.048944950367728</v>
+      </c>
       <c r="G7">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:14">
+      <c r="I7">
+        <v>1.050896001840434</v>
+      </c>
+      <c r="J7">
+        <v>1.045761661271557</v>
+      </c>
+      <c r="K7">
+        <v>1.05120062638295</v>
+      </c>
+      <c r="L7">
+        <v>1.052997878679899</v>
+      </c>
+      <c r="M7">
+        <v>1.058483655685452</v>
+      </c>
+      <c r="N7">
+        <v>1.01832007169952</v>
+      </c>
+      <c r="O7">
+        <v>1.03</v>
+      </c>
+      <c r="P7">
+        <v>1.054858141027742</v>
+      </c>
+      <c r="Q7">
+        <v>1.02</v>
+      </c>
+      <c r="R7">
+        <v>1.047291657503241</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="1">
         <v>6</v>
       </c>
+      <c r="B8">
+        <v>1.05</v>
+      </c>
+      <c r="C8">
+        <v>1.020713505210847</v>
+      </c>
+      <c r="D8">
+        <v>1.037308099634537</v>
+      </c>
+      <c r="E8">
+        <v>1.03801800770151</v>
+      </c>
+      <c r="F8">
+        <v>1.044237397263292</v>
+      </c>
       <c r="G8">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:14">
+      <c r="I8">
+        <v>1.049658022631816</v>
+      </c>
+      <c r="J8">
+        <v>1.041737451943191</v>
+      </c>
+      <c r="K8">
+        <v>1.048005354143124</v>
+      </c>
+      <c r="L8">
+        <v>1.048706495844348</v>
+      </c>
+      <c r="M8">
+        <v>1.054849718018841</v>
+      </c>
+      <c r="N8">
+        <v>1.016856879868289</v>
+      </c>
+      <c r="O8">
+        <v>1.03</v>
+      </c>
+      <c r="P8">
+        <v>1.051982173370835</v>
+      </c>
+      <c r="Q8">
+        <v>1.02</v>
+      </c>
+      <c r="R8">
+        <v>1.045036916169172</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="1">
         <v>7</v>
       </c>
+      <c r="B9">
+        <v>1.05</v>
+      </c>
+      <c r="C9">
+        <v>1.009033133546164</v>
+      </c>
+      <c r="D9">
+        <v>1.029419855762879</v>
+      </c>
+      <c r="E9">
+        <v>1.028115310472762</v>
+      </c>
+      <c r="F9">
+        <v>1.035585523042166</v>
+      </c>
       <c r="G9">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:14">
+      <c r="I9">
+        <v>1.047274503251372</v>
+      </c>
+      <c r="J9">
+        <v>1.034270892082435</v>
+      </c>
+      <c r="K9">
+        <v>1.042052991284916</v>
+      </c>
+      <c r="L9">
+        <v>1.040768130354862</v>
+      </c>
+      <c r="M9">
+        <v>1.048126477559847</v>
+      </c>
+      <c r="N9">
+        <v>1.01412900655629</v>
+      </c>
+      <c r="O9">
+        <v>1.03</v>
+      </c>
+      <c r="P9">
+        <v>1.046661243387136</v>
+      </c>
+      <c r="Q9">
+        <v>1.02</v>
+      </c>
+      <c r="R9">
+        <v>1.040825090875917</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="1">
         <v>8</v>
       </c>
+      <c r="B10">
+        <v>1.05</v>
+      </c>
+      <c r="C10">
+        <v>1.000984287790343</v>
+      </c>
+      <c r="D10">
+        <v>1.024033482929576</v>
+      </c>
+      <c r="E10">
+        <v>1.021356841596325</v>
+      </c>
+      <c r="F10">
+        <v>1.029722800015886</v>
+      </c>
       <c r="G10">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:14">
+      <c r="I10">
+        <v>1.045608385758572</v>
+      </c>
+      <c r="J10">
+        <v>1.029158907930225</v>
+      </c>
+      <c r="K10">
+        <v>1.037981952968016</v>
+      </c>
+      <c r="L10">
+        <v>1.035350908944421</v>
+      </c>
+      <c r="M10">
+        <v>1.043575365855399</v>
+      </c>
+      <c r="N10">
+        <v>1.012273981412067</v>
+      </c>
+      <c r="O10">
+        <v>1.03</v>
+      </c>
+      <c r="P10">
+        <v>1.043110516101446</v>
+      </c>
+      <c r="Q10">
+        <v>1.02</v>
+      </c>
+      <c r="R10">
+        <v>1.037963363787374</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="1">
         <v>9</v>
       </c>
+      <c r="B11">
+        <v>1.05</v>
+      </c>
+      <c r="C11">
+        <v>0.9984143776870444</v>
+      </c>
+      <c r="D11">
+        <v>1.022537096159527</v>
+      </c>
+      <c r="E11">
+        <v>1.019436208985298</v>
+      </c>
+      <c r="F11">
+        <v>1.028327458543495</v>
+      </c>
       <c r="G11">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:14">
+      <c r="I11">
+        <v>1.045299030007037</v>
+      </c>
+      <c r="J11">
+        <v>1.027853269499549</v>
+      </c>
+      <c r="K11">
+        <v>1.037046153573929</v>
+      </c>
+      <c r="L11">
+        <v>1.034000664873747</v>
+      </c>
+      <c r="M11">
+        <v>1.042734227987142</v>
+      </c>
+      <c r="N11">
+        <v>1.011940301267694</v>
+      </c>
+      <c r="O11">
+        <v>1.03</v>
+      </c>
+      <c r="P11">
+        <v>1.042878858292409</v>
+      </c>
+      <c r="Q11">
+        <v>1.02</v>
+      </c>
+      <c r="R11">
+        <v>1.037334452185562</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="1">
         <v>10</v>
       </c>
+      <c r="B12">
+        <v>1.05</v>
+      </c>
+      <c r="C12">
+        <v>0.9978402283851593</v>
+      </c>
+      <c r="D12">
+        <v>1.022318761391263</v>
+      </c>
+      <c r="E12">
+        <v>1.019127541887807</v>
+      </c>
+      <c r="F12">
+        <v>1.028259702805451</v>
+      </c>
       <c r="G12">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:14">
+      <c r="I12">
+        <v>1.04535258267705</v>
+      </c>
+      <c r="J12">
+        <v>1.027736275724539</v>
+      </c>
+      <c r="K12">
+        <v>1.037030506852246</v>
+      </c>
+      <c r="L12">
+        <v>1.033897239515546</v>
+      </c>
+      <c r="M12">
+        <v>1.042864805246937</v>
+      </c>
+      <c r="N12">
+        <v>1.012010846822608</v>
+      </c>
+      <c r="O12">
+        <v>1.03</v>
+      </c>
+      <c r="P12">
+        <v>1.043307006490666</v>
+      </c>
+      <c r="Q12">
+        <v>1.02</v>
+      </c>
+      <c r="R12">
+        <v>1.037323389513994</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="1">
         <v>11</v>
       </c>
+      <c r="B13">
+        <v>1.05</v>
+      </c>
+      <c r="C13">
+        <v>0.9987913454446904</v>
+      </c>
+      <c r="D13">
+        <v>1.023096078473775</v>
+      </c>
+      <c r="E13">
+        <v>1.020065538107815</v>
+      </c>
+      <c r="F13">
+        <v>1.029239100929017</v>
+      </c>
       <c r="G13">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:14">
+      <c r="I13">
+        <v>1.045706665671613</v>
+      </c>
+      <c r="J13">
+        <v>1.028554137421516</v>
+      </c>
+      <c r="K13">
+        <v>1.037751183982695</v>
+      </c>
+      <c r="L13">
+        <v>1.034775374320805</v>
+      </c>
+      <c r="M13">
+        <v>1.04378454789394</v>
+      </c>
+      <c r="N13">
+        <v>1.012410890230106</v>
+      </c>
+      <c r="O13">
+        <v>1.03</v>
+      </c>
+      <c r="P13">
+        <v>1.044309677123396</v>
+      </c>
+      <c r="Q13">
+        <v>1.02</v>
+      </c>
+      <c r="R13">
+        <v>1.037830444872814</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="1">
         <v>12</v>
       </c>
+      <c r="B14">
+        <v>1.05</v>
+      </c>
+      <c r="C14">
+        <v>1.00014698596322</v>
+      </c>
+      <c r="D14">
+        <v>1.024091331007722</v>
+      </c>
+      <c r="E14">
+        <v>1.021285837036376</v>
+      </c>
+      <c r="F14">
+        <v>1.030398297428979</v>
+      </c>
       <c r="G14">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:14">
+      <c r="I14">
+        <v>1.046090392407081</v>
+      </c>
+      <c r="J14">
+        <v>1.029549296745483</v>
+      </c>
+      <c r="K14">
+        <v>1.038589177856829</v>
+      </c>
+      <c r="L14">
+        <v>1.035833653819789</v>
+      </c>
+      <c r="M14">
+        <v>1.044785094707782</v>
+      </c>
+      <c r="N14">
+        <v>1.0128399406351</v>
+      </c>
+      <c r="O14">
+        <v>1.03</v>
+      </c>
+      <c r="P14">
+        <v>1.045273198142438</v>
+      </c>
+      <c r="Q14">
+        <v>1.02</v>
+      </c>
+      <c r="R14">
+        <v>1.038424348915294</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="1">
         <v>13</v>
       </c>
+      <c r="B15">
+        <v>1.05</v>
+      </c>
+      <c r="C15">
+        <v>1.000817599503369</v>
+      </c>
+      <c r="D15">
+        <v>1.024560284226515</v>
+      </c>
+      <c r="E15">
+        <v>1.021865868076045</v>
+      </c>
+      <c r="F15">
+        <v>1.030923497217781</v>
+      </c>
       <c r="G15">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:14">
+      <c r="I15">
+        <v>1.046254180975345</v>
+      </c>
+      <c r="J15">
+        <v>1.030005521625612</v>
+      </c>
+      <c r="K15">
+        <v>1.03896399038428</v>
+      </c>
+      <c r="L15">
+        <v>1.036317175070041</v>
+      </c>
+      <c r="M15">
+        <v>1.045216065838406</v>
+      </c>
+      <c r="N15">
+        <v>1.013020856665792</v>
+      </c>
+      <c r="O15">
+        <v>1.03</v>
+      </c>
+      <c r="P15">
+        <v>1.045651228137126</v>
+      </c>
+      <c r="Q15">
+        <v>1.02</v>
+      </c>
+      <c r="R15">
+        <v>1.038695196473733</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="1">
         <v>14</v>
       </c>
+      <c r="B16">
+        <v>1.05</v>
+      </c>
+      <c r="C16">
+        <v>1.004048300699442</v>
+      </c>
+      <c r="D16">
+        <v>1.026696781216836</v>
+      </c>
+      <c r="E16">
+        <v>1.024555190675054</v>
+      </c>
+      <c r="F16">
+        <v>1.033242356726696</v>
+      </c>
       <c r="G16">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:7">
+      <c r="I16">
+        <v>1.046907079572675</v>
+      </c>
+      <c r="J16">
+        <v>1.032025941534239</v>
+      </c>
+      <c r="K16">
+        <v>1.040564872402484</v>
+      </c>
+      <c r="L16">
+        <v>1.038459390162277</v>
+      </c>
+      <c r="M16">
+        <v>1.047001280496024</v>
+      </c>
+      <c r="N16">
+        <v>1.013733154118641</v>
+      </c>
+      <c r="O16">
+        <v>1.03</v>
+      </c>
+      <c r="P16">
+        <v>1.047023720728361</v>
+      </c>
+      <c r="Q16">
+        <v>1.02</v>
+      </c>
+      <c r="R16">
+        <v>1.039830212375736</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17" s="1">
         <v>15</v>
       </c>
+      <c r="B17">
+        <v>1.05</v>
+      </c>
+      <c r="C17">
+        <v>1.005816904604058</v>
+      </c>
+      <c r="D17">
+        <v>1.027815141778331</v>
+      </c>
+      <c r="E17">
+        <v>1.025979190357153</v>
+      </c>
+      <c r="F17">
+        <v>1.034410559161407</v>
+      </c>
       <c r="G17">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="I17">
+        <v>1.047204377605999</v>
+      </c>
+      <c r="J17">
+        <v>1.033053368515709</v>
+      </c>
+      <c r="K17">
+        <v>1.041352435658197</v>
+      </c>
+      <c r="L17">
+        <v>1.039546543589213</v>
+      </c>
+      <c r="M17">
+        <v>1.04784099784789</v>
+      </c>
+      <c r="N17">
+        <v>1.014054400609486</v>
+      </c>
+      <c r="O17">
+        <v>1.03</v>
+      </c>
+      <c r="P17">
+        <v>1.047559069702212</v>
+      </c>
+      <c r="Q17">
+        <v>1.02</v>
+      </c>
+      <c r="R17">
+        <v>1.040389614117</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18" s="1">
         <v>16</v>
       </c>
+      <c r="B18">
+        <v>1.05</v>
+      </c>
+      <c r="C18">
+        <v>1.006471103829666</v>
+      </c>
+      <c r="D18">
+        <v>1.028133139217156</v>
+      </c>
+      <c r="E18">
+        <v>1.026413233566921</v>
+      </c>
+      <c r="F18">
+        <v>1.034651892958855</v>
+      </c>
       <c r="G18">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="I18">
+        <v>1.047210396721888</v>
+      </c>
+      <c r="J18">
+        <v>1.033291850207892</v>
+      </c>
+      <c r="K18">
+        <v>1.041483306781151</v>
+      </c>
+      <c r="L18">
+        <v>1.03979110051475</v>
+      </c>
+      <c r="M18">
+        <v>1.047898145305184</v>
+      </c>
+      <c r="N18">
+        <v>1.014054081200621</v>
+      </c>
+      <c r="O18">
+        <v>1.03</v>
+      </c>
+      <c r="P18">
+        <v>1.047367921715797</v>
+      </c>
+      <c r="Q18">
+        <v>1.02</v>
+      </c>
+      <c r="R18">
+        <v>1.040470571477082</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19" s="1">
         <v>17</v>
       </c>
+      <c r="B19">
+        <v>1.05</v>
+      </c>
+      <c r="C19">
+        <v>1.006163638967529</v>
+      </c>
+      <c r="D19">
+        <v>1.027774212228234</v>
+      </c>
+      <c r="E19">
+        <v>1.025992802598311</v>
+      </c>
+      <c r="F19">
+        <v>1.034090576905415</v>
+      </c>
       <c r="G19">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:7">
+      <c r="I19">
+        <v>1.046980259076614</v>
+      </c>
+      <c r="J19">
+        <v>1.032862518520223</v>
+      </c>
+      <c r="K19">
+        <v>1.041068082095548</v>
+      </c>
+      <c r="L19">
+        <v>1.039315237338476</v>
+      </c>
+      <c r="M19">
+        <v>1.047284179111099</v>
+      </c>
+      <c r="N19">
+        <v>1.013792772975264</v>
+      </c>
+      <c r="O19">
+        <v>1.03</v>
+      </c>
+      <c r="P19">
+        <v>1.04655903016513</v>
+      </c>
+      <c r="Q19">
+        <v>1.02</v>
+      </c>
+      <c r="R19">
+        <v>1.040183359283669</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20" s="1">
         <v>18</v>
       </c>
+      <c r="B20">
+        <v>1.05</v>
+      </c>
+      <c r="C20">
+        <v>1.003131307526032</v>
+      </c>
+      <c r="D20">
+        <v>1.025488483592184</v>
+      </c>
+      <c r="E20">
+        <v>1.023163783400491</v>
+      </c>
+      <c r="F20">
+        <v>1.031292266775701</v>
+      </c>
       <c r="G20">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:7">
+      <c r="I20">
+        <v>1.046075010086044</v>
+      </c>
+      <c r="J20">
+        <v>1.030542053886135</v>
+      </c>
+      <c r="K20">
+        <v>1.039097481277285</v>
+      </c>
+      <c r="L20">
+        <v>1.036811197610231</v>
+      </c>
+      <c r="M20">
+        <v>1.044806325752569</v>
+      </c>
+      <c r="N20">
+        <v>1.012786560791632</v>
+      </c>
+      <c r="O20">
+        <v>1.03</v>
+      </c>
+      <c r="P20">
+        <v>1.044074195334149</v>
+      </c>
+      <c r="Q20">
+        <v>1.02</v>
+      </c>
+      <c r="R20">
+        <v>1.038793997489766</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
       <c r="A21" s="1">
         <v>19</v>
       </c>
+      <c r="B21">
+        <v>1.05</v>
+      </c>
+      <c r="C21">
+        <v>0.9968719005252754</v>
+      </c>
+      <c r="D21">
+        <v>1.021265304174857</v>
+      </c>
+      <c r="E21">
+        <v>1.017877187126567</v>
+      </c>
+      <c r="F21">
+        <v>1.026657268391895</v>
+      </c>
       <c r="G21">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:7">
+      <c r="I21">
+        <v>1.044716070968854</v>
+      </c>
+      <c r="J21">
+        <v>1.026500990992503</v>
+      </c>
+      <c r="K21">
+        <v>1.035854696118961</v>
+      </c>
+      <c r="L21">
+        <v>1.032527605467527</v>
+      </c>
+      <c r="M21">
+        <v>1.041150618147864</v>
+      </c>
+      <c r="N21">
+        <v>1.011292711468263</v>
+      </c>
+      <c r="O21">
+        <v>1.03</v>
+      </c>
+      <c r="P21">
+        <v>1.041140344233054</v>
+      </c>
+      <c r="Q21">
+        <v>1.02</v>
+      </c>
+      <c r="R21">
+        <v>1.036504478495536</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
       <c r="A22" s="1">
         <v>20</v>
       </c>
+      <c r="B22">
+        <v>1.05</v>
+      </c>
+      <c r="C22">
+        <v>0.9928784312020662</v>
+      </c>
+      <c r="D22">
+        <v>1.018582177386411</v>
+      </c>
+      <c r="E22">
+        <v>1.014525233288679</v>
+      </c>
+      <c r="F22">
+        <v>1.023737193503755</v>
+      </c>
       <c r="G22">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:7">
+      <c r="I22">
+        <v>1.043845213736386</v>
+      </c>
+      <c r="J22">
+        <v>1.023934410896741</v>
+      </c>
+      <c r="K22">
+        <v>1.033794292066788</v>
+      </c>
+      <c r="L22">
+        <v>1.029814331713367</v>
+      </c>
+      <c r="M22">
+        <v>1.038852636085507</v>
+      </c>
+      <c r="N22">
+        <v>1.010346827311478</v>
+      </c>
+      <c r="O22">
+        <v>1.03</v>
+      </c>
+      <c r="P22">
+        <v>1.039321644825581</v>
+      </c>
+      <c r="Q22">
+        <v>1.02</v>
+      </c>
+      <c r="R22">
+        <v>1.035034220114447</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
       <c r="A23" s="1">
         <v>21</v>
       </c>
+      <c r="B23">
+        <v>1.05</v>
+      </c>
+      <c r="C23">
+        <v>0.9949849714376923</v>
+      </c>
+      <c r="D23">
+        <v>1.019990095222183</v>
+      </c>
+      <c r="E23">
+        <v>1.016290433833904</v>
+      </c>
+      <c r="F23">
+        <v>1.025274478575683</v>
+      </c>
       <c r="G23">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="1:7">
+      <c r="I23">
+        <v>1.044299343317775</v>
+      </c>
+      <c r="J23">
+        <v>1.025282073500349</v>
+      </c>
+      <c r="K23">
+        <v>1.034871789912306</v>
+      </c>
+      <c r="L23">
+        <v>1.031240434265832</v>
+      </c>
+      <c r="M23">
+        <v>1.040059721234537</v>
+      </c>
+      <c r="N23">
+        <v>1.010839940609148</v>
+      </c>
+      <c r="O23">
+        <v>1.03</v>
+      </c>
+      <c r="P23">
+        <v>1.040276972718373</v>
+      </c>
+      <c r="Q23">
+        <v>1.02</v>
+      </c>
+      <c r="R23">
+        <v>1.035786433040419</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
       <c r="A24" s="1">
         <v>22</v>
       </c>
+      <c r="B24">
+        <v>1.05</v>
+      </c>
+      <c r="C24">
+        <v>1.003109156129572</v>
+      </c>
+      <c r="D24">
+        <v>1.025443311792239</v>
+      </c>
+      <c r="E24">
+        <v>1.023120017924482</v>
+      </c>
+      <c r="F24">
+        <v>1.031227334774252</v>
+      </c>
       <c r="G24">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="1:7">
+      <c r="I24">
+        <v>1.046039705622474</v>
+      </c>
+      <c r="J24">
+        <v>1.030488044717624</v>
+      </c>
+      <c r="K24">
+        <v>1.039037876469206</v>
+      </c>
+      <c r="L24">
+        <v>1.036752931014738</v>
+      </c>
+      <c r="M24">
+        <v>1.044727391982227</v>
+      </c>
+      <c r="N24">
+        <v>1.012749261903946</v>
+      </c>
+      <c r="O24">
+        <v>1.03</v>
+      </c>
+      <c r="P24">
+        <v>1.043971112868707</v>
+      </c>
+      <c r="Q24">
+        <v>1.02</v>
+      </c>
+      <c r="R24">
+        <v>1.038724556255103</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
       <c r="A25" s="1">
         <v>23</v>
       </c>
+      <c r="B25">
+        <v>1.05</v>
+      </c>
+      <c r="C25">
+        <v>1.012150096467439</v>
+      </c>
+      <c r="D25">
+        <v>1.031532855468861</v>
+      </c>
+      <c r="E25">
+        <v>1.030754941762372</v>
+      </c>
+      <c r="F25">
+        <v>1.037890758819749</v>
+      </c>
       <c r="G25">
         <v>1</v>
+      </c>
+      <c r="I25">
+        <v>1.047930572640035</v>
+      </c>
+      <c r="J25">
+        <v>1.036275367682301</v>
+      </c>
+      <c r="K25">
+        <v>1.043660619402191</v>
+      </c>
+      <c r="L25">
+        <v>1.042893875434429</v>
+      </c>
+      <c r="M25">
+        <v>1.049928025657703</v>
+      </c>
+      <c r="N25">
+        <v>1.014867774912792</v>
+      </c>
+      <c r="O25">
+        <v>1.03</v>
+      </c>
+      <c r="P25">
+        <v>1.048087034487784</v>
+      </c>
+      <c r="Q25">
+        <v>1.02</v>
+      </c>
+      <c r="R25">
+        <v>1.041990187345919</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_26/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_26/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,52 +439,61 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.019027912848509</v>
+        <v>1.017736654541141</v>
       </c>
       <c r="D2">
-        <v>1.036159807087731</v>
+        <v>1.034443267068247</v>
       </c>
       <c r="E2">
-        <v>1.036582816041397</v>
+        <v>1.03529970187101</v>
       </c>
       <c r="F2">
-        <v>1.042982202231671</v>
+        <v>1.041711571367619</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.049313318853804</v>
+        <v>1.048689848641163</v>
       </c>
       <c r="J2">
-        <v>1.040654024265857</v>
+        <v>1.039399504678533</v>
       </c>
       <c r="K2">
-        <v>1.047137355615789</v>
+        <v>1.045442734396095</v>
       </c>
       <c r="L2">
-        <v>1.047554977019701</v>
+        <v>1.046288221881163</v>
       </c>
       <c r="M2">
-        <v>1.053873523841657</v>
+        <v>1.052618845476281</v>
       </c>
       <c r="N2">
-        <v>1.016457998739316</v>
+        <v>1.016982477471194</v>
       </c>
       <c r="O2">
         <v>1.03</v>
       </c>
       <c r="P2">
-        <v>1.051209592788383</v>
+        <v>1.050216612797869</v>
       </c>
       <c r="Q2">
         <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.044400461303334</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.043210943722278</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.023853325228906</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -486,52 +501,61 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.023903677231243</v>
+        <v>1.022268935585519</v>
       </c>
       <c r="D3">
-        <v>1.039457255141723</v>
+        <v>1.037396443430145</v>
       </c>
       <c r="E3">
-        <v>1.040730843189776</v>
+        <v>1.039121232707869</v>
       </c>
       <c r="F3">
-        <v>1.046609647165108</v>
+        <v>1.045052092385724</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.050280268233807</v>
+        <v>1.049502277333195</v>
       </c>
       <c r="J3">
-        <v>1.043763256011928</v>
+        <v>1.042170402139745</v>
       </c>
       <c r="K3">
-        <v>1.049608988183287</v>
+        <v>1.047572185303471</v>
       </c>
       <c r="L3">
-        <v>1.050867797449783</v>
+        <v>1.049276872438307</v>
       </c>
       <c r="M3">
-        <v>1.056678958803111</v>
+        <v>1.055139234064495</v>
       </c>
       <c r="N3">
-        <v>1.017590234889616</v>
+        <v>1.017777409103744</v>
       </c>
       <c r="O3">
         <v>1.03</v>
       </c>
       <c r="P3">
-        <v>1.053429870824424</v>
+        <v>1.052211302299543</v>
       </c>
       <c r="Q3">
         <v>1.02</v>
       </c>
       <c r="R3">
-        <v>1.046145452691779</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.044713707050019</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.024343764374283</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -539,52 +563,61 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.02699463578805</v>
+        <v>1.025145728018831</v>
       </c>
       <c r="D4">
-        <v>1.041550540027046</v>
+        <v>1.039273943822311</v>
       </c>
       <c r="E4">
-        <v>1.043366465322644</v>
+        <v>1.041552862855631</v>
       </c>
       <c r="F4">
-        <v>1.048915845352005</v>
+        <v>1.047178873246402</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.050882459332074</v>
+        <v>1.050007607989189</v>
       </c>
       <c r="J4">
-        <v>1.045732145560715</v>
+        <v>1.043927364913725</v>
       </c>
       <c r="K4">
-        <v>1.051172073455085</v>
+        <v>1.048920393119308</v>
       </c>
       <c r="L4">
-        <v>1.052968220282938</v>
+        <v>1.051174370930101</v>
       </c>
       <c r="M4">
-        <v>1.058457678361656</v>
+        <v>1.056739378300284</v>
       </c>
       <c r="N4">
-        <v>1.018306191088337</v>
+        <v>1.018280969254249</v>
       </c>
       <c r="O4">
         <v>1.03</v>
       </c>
       <c r="P4">
-        <v>1.054837582116468</v>
+        <v>1.053477687965949</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.047251558055275</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.045667959177297</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.024651667866146</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -592,52 +625,61 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.02828506023367</v>
+        <v>1.026347340899337</v>
       </c>
       <c r="D5">
-        <v>1.042427271370952</v>
+        <v>1.040061043791343</v>
       </c>
       <c r="E5">
-        <v>1.04446877999409</v>
+        <v>1.042570509657175</v>
       </c>
       <c r="F5">
-        <v>1.049880802100098</v>
+        <v>1.048069356948365</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.05113319305446</v>
+        <v>1.05021804588469</v>
       </c>
       <c r="J5">
-        <v>1.046555511131501</v>
+        <v>1.044662639228844</v>
       </c>
       <c r="K5">
-        <v>1.051826788706389</v>
+        <v>1.049485765436568</v>
       </c>
       <c r="L5">
-        <v>1.053846664084844</v>
+        <v>1.051968505758082</v>
       </c>
       <c r="M5">
-        <v>1.059201834066538</v>
+        <v>1.057409337864189</v>
       </c>
       <c r="N5">
-        <v>1.018606276455178</v>
+        <v>1.018492261911267</v>
       </c>
       <c r="O5">
         <v>1.03</v>
       </c>
       <c r="P5">
-        <v>1.055426519818754</v>
+        <v>1.054007906530037</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.047721585875717</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.046075527619272</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.024780844093039</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -645,52 +687,61 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.028507870450734</v>
+        <v>1.026554597959236</v>
       </c>
       <c r="D6">
-        <v>1.042581340337912</v>
+        <v>1.040199529002385</v>
       </c>
       <c r="E6">
-        <v>1.044659901817809</v>
+        <v>1.042746818433574</v>
       </c>
       <c r="F6">
-        <v>1.050048259488434</v>
+        <v>1.04822381901858</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.051178730820576</v>
+        <v>1.050256500224872</v>
       </c>
       <c r="J6">
-        <v>1.04670001471823</v>
+        <v>1.044791713899908</v>
       </c>
       <c r="K6">
-        <v>1.05194355620786</v>
+        <v>1.049586998292065</v>
       </c>
       <c r="L6">
-        <v>1.054000194558064</v>
+        <v>1.052107285046318</v>
       </c>
       <c r="M6">
-        <v>1.059332213307762</v>
+        <v>1.057526769375765</v>
       </c>
       <c r="N6">
-        <v>1.01866006869209</v>
+        <v>1.018530174135484</v>
       </c>
       <c r="O6">
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>1.055529704159475</v>
+        <v>1.054100843992468</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.047812802600835</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.046156631467838</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.024804776255068</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -698,52 +749,61 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.027030861345687</v>
+        <v>1.025190959699907</v>
       </c>
       <c r="D7">
-        <v>1.041582281319301</v>
+        <v>1.039312028738089</v>
       </c>
       <c r="E7">
-        <v>1.04339931608667</v>
+        <v>1.04159389297887</v>
       </c>
       <c r="F7">
-        <v>1.048944950367728</v>
+        <v>1.047214497398258</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.050896001840434</v>
+        <v>1.050024238882458</v>
       </c>
       <c r="J7">
-        <v>1.045761661271557</v>
+        <v>1.043965651170117</v>
       </c>
       <c r="K7">
-        <v>1.05120062638295</v>
+        <v>1.048955209935101</v>
       </c>
       <c r="L7">
-        <v>1.052997878679899</v>
+        <v>1.051212111354773</v>
       </c>
       <c r="M7">
-        <v>1.058483655685452</v>
+        <v>1.056771797100507</v>
       </c>
       <c r="N7">
-        <v>1.01832007169952</v>
+        <v>1.018321062811381</v>
       </c>
       <c r="O7">
         <v>1.03</v>
       </c>
       <c r="P7">
-        <v>1.054858141027742</v>
+        <v>1.053503344821029</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.047291657503241</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.045714491497698</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.024663024174792</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -751,52 +811,61 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.020713505210847</v>
+        <v>1.019339775809146</v>
       </c>
       <c r="D8">
-        <v>1.037308099634537</v>
+        <v>1.035500529163792</v>
       </c>
       <c r="E8">
-        <v>1.03801800770151</v>
+        <v>1.036655340996814</v>
       </c>
       <c r="F8">
-        <v>1.044237397263292</v>
+        <v>1.042894781657708</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.049658022631816</v>
+        <v>1.048994932405342</v>
       </c>
       <c r="J8">
-        <v>1.041737451943191</v>
+        <v>1.040401468898037</v>
       </c>
       <c r="K8">
-        <v>1.048005354143124</v>
+        <v>1.046220172206841</v>
       </c>
       <c r="L8">
-        <v>1.048706495844348</v>
+        <v>1.047360669347992</v>
       </c>
       <c r="M8">
-        <v>1.054849718018841</v>
+        <v>1.053523449533466</v>
       </c>
       <c r="N8">
-        <v>1.016856879868289</v>
+        <v>1.01735496263823</v>
       </c>
       <c r="O8">
         <v>1.03</v>
       </c>
       <c r="P8">
-        <v>1.051982173370835</v>
+        <v>1.050932536431408</v>
       </c>
       <c r="Q8">
         <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.045036916169172</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.043785633856053</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.024039403587935</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -804,52 +873,61 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.009033133546164</v>
+        <v>1.00851233292758</v>
       </c>
       <c r="D9">
-        <v>1.029419855762879</v>
+        <v>1.028458191191181</v>
       </c>
       <c r="E9">
-        <v>1.028115310472762</v>
+        <v>1.027560162361694</v>
       </c>
       <c r="F9">
-        <v>1.035585523042166</v>
+        <v>1.034951375971179</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.047274503251372</v>
+        <v>1.046991557049515</v>
       </c>
       <c r="J9">
-        <v>1.034270892082435</v>
+        <v>1.03376803866596</v>
       </c>
       <c r="K9">
-        <v>1.042052991284916</v>
+        <v>1.041105831164502</v>
       </c>
       <c r="L9">
-        <v>1.040768130354862</v>
+        <v>1.04022137821967</v>
       </c>
       <c r="M9">
-        <v>1.048126477559847</v>
+        <v>1.047501747004078</v>
       </c>
       <c r="N9">
-        <v>1.01412900655629</v>
+        <v>1.015457471105388</v>
       </c>
       <c r="O9">
         <v>1.03</v>
       </c>
       <c r="P9">
-        <v>1.046661243387136</v>
+        <v>1.046166815052588</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.040825090875917</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.04016607486402</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.022845125773955</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -857,52 +935,61 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.000984287790343</v>
+        <v>1.001122098407232</v>
       </c>
       <c r="D10">
-        <v>1.024033482929576</v>
+        <v>1.023706252803108</v>
       </c>
       <c r="E10">
-        <v>1.021356841596325</v>
+        <v>1.021420251837273</v>
       </c>
       <c r="F10">
-        <v>1.029722800015886</v>
+        <v>1.029628166988783</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.045608385758572</v>
+        <v>1.045611222488984</v>
       </c>
       <c r="J10">
-        <v>1.029158907930225</v>
+        <v>1.029291267109647</v>
       </c>
       <c r="K10">
-        <v>1.037981952968016</v>
+        <v>1.037660280778395</v>
       </c>
       <c r="L10">
-        <v>1.035350908944421</v>
+        <v>1.035413235404407</v>
       </c>
       <c r="M10">
-        <v>1.043575365855399</v>
+        <v>1.043482316875212</v>
       </c>
       <c r="N10">
-        <v>1.012273981412067</v>
+        <v>1.014303140515487</v>
       </c>
       <c r="O10">
         <v>1.03</v>
       </c>
       <c r="P10">
-        <v>1.043110516101446</v>
+        <v>1.043036878874164</v>
       </c>
       <c r="Q10">
         <v>1.02</v>
       </c>
       <c r="R10">
-        <v>1.037963363787374</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.037748293308711</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.02204290068527</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -910,52 +997,61 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9984143776870444</v>
+        <v>0.9987746875715476</v>
       </c>
       <c r="D11">
-        <v>1.022537096159527</v>
+        <v>1.022413857653064</v>
       </c>
       <c r="E11">
-        <v>1.019436208985298</v>
+        <v>1.019706484171107</v>
       </c>
       <c r="F11">
-        <v>1.028327458543495</v>
+        <v>1.028412425583063</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.045299030007037</v>
+        <v>1.045384333126934</v>
       </c>
       <c r="J11">
-        <v>1.027853269499549</v>
+        <v>1.028198529965566</v>
       </c>
       <c r="K11">
-        <v>1.037046153573929</v>
+        <v>1.036925108445356</v>
       </c>
       <c r="L11">
-        <v>1.034000664873747</v>
+        <v>1.03426609408419</v>
       </c>
       <c r="M11">
-        <v>1.042734227987142</v>
+        <v>1.042817705176724</v>
       </c>
       <c r="N11">
-        <v>1.011940301267694</v>
+        <v>1.014324905171551</v>
       </c>
       <c r="O11">
         <v>1.03</v>
       </c>
       <c r="P11">
-        <v>1.042878858292409</v>
+        <v>1.042944887725589</v>
       </c>
       <c r="Q11">
         <v>1.02</v>
       </c>
       <c r="R11">
-        <v>1.037334452185562</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.037264438220998</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.021957341592897</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -963,52 +1059,61 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9978402283851593</v>
+        <v>0.9982238764788031</v>
       </c>
       <c r="D12">
-        <v>1.022318761391263</v>
+        <v>1.022215294824186</v>
       </c>
       <c r="E12">
-        <v>1.019127541887807</v>
+        <v>1.019419158160595</v>
       </c>
       <c r="F12">
-        <v>1.028259702805451</v>
+        <v>1.028363711377408</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.04535258267705</v>
+        <v>1.04543738298978</v>
       </c>
       <c r="J12">
-        <v>1.027736275724539</v>
+        <v>1.028103595721434</v>
       </c>
       <c r="K12">
-        <v>1.037030506852246</v>
+        <v>1.036928911845344</v>
       </c>
       <c r="L12">
-        <v>1.033897239515546</v>
+        <v>1.034183540468014</v>
       </c>
       <c r="M12">
-        <v>1.042864805246937</v>
+        <v>1.042966961056032</v>
       </c>
       <c r="N12">
-        <v>1.012010846822608</v>
+        <v>1.014478364863187</v>
       </c>
       <c r="O12">
         <v>1.03</v>
       </c>
       <c r="P12">
-        <v>1.043307006490666</v>
+        <v>1.043387783390601</v>
       </c>
       <c r="Q12">
         <v>1.02</v>
       </c>
       <c r="R12">
-        <v>1.037323389513994</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.037267127276154</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.022021272016145</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1016,52 +1121,61 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9987913454446904</v>
+        <v>0.9990241405859243</v>
       </c>
       <c r="D13">
-        <v>1.023096078473775</v>
+        <v>1.022854196080238</v>
       </c>
       <c r="E13">
-        <v>1.020065538107815</v>
+        <v>1.020216698209942</v>
       </c>
       <c r="F13">
-        <v>1.029239100929017</v>
+        <v>1.0292230075389</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.045706665671613</v>
+        <v>1.045718592229295</v>
       </c>
       <c r="J13">
-        <v>1.028554137421516</v>
+        <v>1.028777085684961</v>
       </c>
       <c r="K13">
-        <v>1.037751183982695</v>
+        <v>1.037513654438932</v>
       </c>
       <c r="L13">
-        <v>1.034775374320805</v>
+        <v>1.034923794493176</v>
       </c>
       <c r="M13">
-        <v>1.04378454789394</v>
+        <v>1.043768739567001</v>
       </c>
       <c r="N13">
-        <v>1.012410890230106</v>
+        <v>1.014712653704667</v>
       </c>
       <c r="O13">
         <v>1.03</v>
       </c>
       <c r="P13">
-        <v>1.044309677123396</v>
+        <v>1.044297180235809</v>
       </c>
       <c r="Q13">
         <v>1.02</v>
       </c>
       <c r="R13">
-        <v>1.037830444872814</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.037677823103614</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.022209659357839</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1069,52 +1183,61 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.00014698596322</v>
+        <v>1.000197342983343</v>
       </c>
       <c r="D14">
-        <v>1.024091331007722</v>
+        <v>1.023682971194475</v>
       </c>
       <c r="E14">
-        <v>1.021285837036376</v>
+        <v>1.021267249701785</v>
       </c>
       <c r="F14">
-        <v>1.030398297428979</v>
+        <v>1.030236892314457</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.046090392407081</v>
+        <v>1.046019934227931</v>
       </c>
       <c r="J14">
-        <v>1.029549296745483</v>
+        <v>1.029597556887791</v>
       </c>
       <c r="K14">
-        <v>1.038589177856829</v>
+        <v>1.038188069424551</v>
       </c>
       <c r="L14">
-        <v>1.035833653819789</v>
+        <v>1.035815398741548</v>
       </c>
       <c r="M14">
-        <v>1.044785094707782</v>
+        <v>1.044626509567737</v>
       </c>
       <c r="N14">
-        <v>1.0128399406351</v>
+        <v>1.014915424437205</v>
       </c>
       <c r="O14">
         <v>1.03</v>
       </c>
       <c r="P14">
-        <v>1.045273198142438</v>
+        <v>1.045147849294533</v>
       </c>
       <c r="Q14">
         <v>1.02</v>
       </c>
       <c r="R14">
-        <v>1.038424348915294</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.038156200850073</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.022398857240061</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1122,52 +1245,61 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.000817599503369</v>
+        <v>1.000786449031881</v>
       </c>
       <c r="D15">
-        <v>1.024560284226515</v>
+        <v>1.02407769619219</v>
       </c>
       <c r="E15">
-        <v>1.021865868076045</v>
+        <v>1.021771431306464</v>
       </c>
       <c r="F15">
-        <v>1.030923497217781</v>
+        <v>1.030697110469239</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.046254180975345</v>
+        <v>1.046148428255106</v>
       </c>
       <c r="J15">
-        <v>1.030005521625612</v>
+        <v>1.029975656273787</v>
       </c>
       <c r="K15">
-        <v>1.03896399038428</v>
+        <v>1.038489904105825</v>
       </c>
       <c r="L15">
-        <v>1.036317175070041</v>
+        <v>1.036224412573151</v>
       </c>
       <c r="M15">
-        <v>1.045216065838406</v>
+        <v>1.044993602613131</v>
       </c>
       <c r="N15">
-        <v>1.013020856665792</v>
+        <v>1.01498947441595</v>
       </c>
       <c r="O15">
         <v>1.03</v>
       </c>
       <c r="P15">
-        <v>1.045651228137126</v>
+        <v>1.045475393357635</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>1.038695196473733</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.038376016540461</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.022475966807024</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1175,52 +1307,61 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.004048300699442</v>
+        <v>1.003681226007561</v>
       </c>
       <c r="D16">
-        <v>1.026696781216836</v>
+        <v>1.025906320082485</v>
       </c>
       <c r="E16">
-        <v>1.024555190675054</v>
+        <v>1.024147602841434</v>
       </c>
       <c r="F16">
-        <v>1.033242356726696</v>
+        <v>1.032746739257973</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.046907079572675</v>
+        <v>1.046662922904158</v>
       </c>
       <c r="J16">
-        <v>1.032025941534239</v>
+        <v>1.03167322651714</v>
       </c>
       <c r="K16">
-        <v>1.040564872402484</v>
+        <v>1.039787716204178</v>
       </c>
       <c r="L16">
-        <v>1.038459390162277</v>
+        <v>1.038058696539343</v>
       </c>
       <c r="M16">
-        <v>1.047001280496024</v>
+        <v>1.046513866625248</v>
       </c>
       <c r="N16">
-        <v>1.013733154118641</v>
+        <v>1.015244261066753</v>
       </c>
       <c r="O16">
         <v>1.03</v>
       </c>
       <c r="P16">
-        <v>1.047023720728361</v>
+        <v>1.0466384580012</v>
       </c>
       <c r="Q16">
         <v>1.02</v>
       </c>
       <c r="R16">
-        <v>1.039830212375736</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>1.039297045988179</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.022764571795411</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1228,52 +1369,61 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.005816904604058</v>
+        <v>1.005302496992025</v>
       </c>
       <c r="D17">
-        <v>1.027815141778331</v>
+        <v>1.026886748472855</v>
       </c>
       <c r="E17">
-        <v>1.025979190357153</v>
+        <v>1.025433716365291</v>
       </c>
       <c r="F17">
-        <v>1.034410559161407</v>
+        <v>1.033795371805477</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.047204377605999</v>
+        <v>1.046902137865652</v>
       </c>
       <c r="J17">
-        <v>1.033053368515709</v>
+        <v>1.032558422093178</v>
       </c>
       <c r="K17">
-        <v>1.041352435658197</v>
+        <v>1.040439225322216</v>
       </c>
       <c r="L17">
-        <v>1.039546543589213</v>
+        <v>1.039010027114989</v>
       </c>
       <c r="M17">
-        <v>1.04784099784789</v>
+        <v>1.047235703432101</v>
       </c>
       <c r="N17">
-        <v>1.014054400609486</v>
+        <v>1.015365009121027</v>
       </c>
       <c r="O17">
         <v>1.03</v>
       </c>
       <c r="P17">
-        <v>1.047559069702212</v>
+        <v>1.047080584179283</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.040389614117</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>1.039760498418246</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.022889250430877</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1281,52 +1431,61 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.006471103829666</v>
+        <v>1.005941073426977</v>
       </c>
       <c r="D18">
-        <v>1.028133139217156</v>
+        <v>1.027187507363622</v>
       </c>
       <c r="E18">
-        <v>1.026413233566921</v>
+        <v>1.025852737284683</v>
       </c>
       <c r="F18">
-        <v>1.034651892958855</v>
+        <v>1.03402223715073</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.047210396721888</v>
+        <v>1.046907709751506</v>
       </c>
       <c r="J18">
-        <v>1.033291850207892</v>
+        <v>1.032781497920938</v>
       </c>
       <c r="K18">
-        <v>1.041483306781151</v>
+        <v>1.040552889765152</v>
       </c>
       <c r="L18">
-        <v>1.03979110051475</v>
+        <v>1.039239656881535</v>
       </c>
       <c r="M18">
-        <v>1.047898145305184</v>
+        <v>1.04727845360663</v>
       </c>
       <c r="N18">
-        <v>1.014054081200621</v>
+        <v>1.015328550999474</v>
       </c>
       <c r="O18">
         <v>1.03</v>
       </c>
       <c r="P18">
-        <v>1.047367921715797</v>
+        <v>1.046877954072924</v>
       </c>
       <c r="Q18">
         <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.040470571477082</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>1.039828156357544</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.022869824504688</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1334,52 +1493,61 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.006163638967529</v>
+        <v>1.005718567801606</v>
       </c>
       <c r="D19">
-        <v>1.027774212228234</v>
+        <v>1.026905555726592</v>
       </c>
       <c r="E19">
-        <v>1.025992802598311</v>
+        <v>1.025511484293381</v>
       </c>
       <c r="F19">
-        <v>1.034090576905415</v>
+        <v>1.033527570610654</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.046980259076614</v>
+        <v>1.046721389368961</v>
       </c>
       <c r="J19">
-        <v>1.032862518520223</v>
+        <v>1.032433886941394</v>
       </c>
       <c r="K19">
-        <v>1.041068082095548</v>
+        <v>1.040213338608368</v>
       </c>
       <c r="L19">
-        <v>1.039315237338476</v>
+        <v>1.03884165881214</v>
       </c>
       <c r="M19">
-        <v>1.047284179111099</v>
+        <v>1.046730046443278</v>
       </c>
       <c r="N19">
-        <v>1.013792772975264</v>
+        <v>1.01514752765547</v>
       </c>
       <c r="O19">
         <v>1.03</v>
       </c>
       <c r="P19">
-        <v>1.04655903016513</v>
+        <v>1.046120756264325</v>
       </c>
       <c r="Q19">
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.040183359283669</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>1.039595074212198</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.022733468466914</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1387,52 +1555,61 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.003131307526032</v>
+        <v>1.003053060492456</v>
       </c>
       <c r="D20">
-        <v>1.025488483592184</v>
+        <v>1.0249609792695</v>
       </c>
       <c r="E20">
-        <v>1.023163783400491</v>
+        <v>1.023025524311787</v>
       </c>
       <c r="F20">
-        <v>1.031292266775701</v>
+        <v>1.031023572652504</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.046075010086044</v>
+        <v>1.045985198388343</v>
       </c>
       <c r="J20">
-        <v>1.030542053886135</v>
+        <v>1.030466796973927</v>
       </c>
       <c r="K20">
-        <v>1.039097481277285</v>
+        <v>1.038578674490226</v>
       </c>
       <c r="L20">
-        <v>1.036811197610231</v>
+        <v>1.036675230385307</v>
       </c>
       <c r="M20">
-        <v>1.044806325752569</v>
+        <v>1.044541996638507</v>
       </c>
       <c r="N20">
-        <v>1.012786560791632</v>
+        <v>1.014542153441196</v>
       </c>
       <c r="O20">
         <v>1.03</v>
       </c>
       <c r="P20">
-        <v>1.044074195334149</v>
+        <v>1.043865007803184</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.038793997489766</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>1.038443628436926</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.022260850074746</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1440,52 +1617,61 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9968719005252754</v>
+        <v>0.997506848227378</v>
       </c>
       <c r="D21">
-        <v>1.021265304174857</v>
+        <v>1.021390524897714</v>
       </c>
       <c r="E21">
-        <v>1.017877187126567</v>
+        <v>1.018403042322642</v>
       </c>
       <c r="F21">
-        <v>1.026657268391895</v>
+        <v>1.026960344770673</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.044716070968854</v>
+        <v>1.044931261799455</v>
       </c>
       <c r="J21">
-        <v>1.026500990992503</v>
+        <v>1.027109178190616</v>
       </c>
       <c r="K21">
-        <v>1.035854696118961</v>
+        <v>1.035977671457882</v>
       </c>
       <c r="L21">
-        <v>1.032527605467527</v>
+        <v>1.03304395440596</v>
       </c>
       <c r="M21">
-        <v>1.041150618147864</v>
+        <v>1.041448334927051</v>
       </c>
       <c r="N21">
-        <v>1.011292711468263</v>
+        <v>1.014009557508648</v>
       </c>
       <c r="O21">
         <v>1.03</v>
       </c>
       <c r="P21">
-        <v>1.041140344233054</v>
+        <v>1.04137596685496</v>
       </c>
       <c r="Q21">
         <v>1.02</v>
       </c>
       <c r="R21">
-        <v>1.036504478495536</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>1.036608209642691</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.021654048682147</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1493,52 +1679,61 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9928784312020662</v>
+        <v>0.9939725088891377</v>
       </c>
       <c r="D22">
-        <v>1.018582177386411</v>
+        <v>1.019128234236517</v>
       </c>
       <c r="E22">
-        <v>1.014525233288679</v>
+        <v>1.015477722585108</v>
       </c>
       <c r="F22">
-        <v>1.023737193503755</v>
+        <v>1.024408735441271</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.043845213736386</v>
+        <v>1.044257668405365</v>
       </c>
       <c r="J22">
-        <v>1.023934410896741</v>
+        <v>1.024979553273032</v>
       </c>
       <c r="K22">
-        <v>1.033794292066788</v>
+        <v>1.034330048197911</v>
       </c>
       <c r="L22">
-        <v>1.029814331713367</v>
+        <v>1.030748674497239</v>
       </c>
       <c r="M22">
-        <v>1.038852636085507</v>
+        <v>1.039511678023632</v>
       </c>
       <c r="N22">
-        <v>1.010346827311478</v>
+        <v>1.013669852479829</v>
       </c>
       <c r="O22">
         <v>1.03</v>
       </c>
       <c r="P22">
-        <v>1.039321644825581</v>
+        <v>1.039843232997237</v>
       </c>
       <c r="Q22">
         <v>1.02</v>
       </c>
       <c r="R22">
-        <v>1.035034220114447</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>1.035428520331611</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.021270427372042</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1546,52 +1741,61 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9949849714376923</v>
+        <v>0.9958151360322035</v>
       </c>
       <c r="D23">
-        <v>1.019990095222183</v>
+        <v>1.020296367650565</v>
       </c>
       <c r="E23">
-        <v>1.016290433833904</v>
+        <v>1.016998011674766</v>
       </c>
       <c r="F23">
-        <v>1.025274478575683</v>
+        <v>1.025734850346085</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.044299343317775</v>
+        <v>1.044598757991522</v>
       </c>
       <c r="J23">
-        <v>1.025282073500349</v>
+        <v>1.026076249233686</v>
       </c>
       <c r="K23">
-        <v>1.034871789912306</v>
+        <v>1.035172436643384</v>
       </c>
       <c r="L23">
-        <v>1.031240434265832</v>
+        <v>1.031934898195763</v>
       </c>
       <c r="M23">
-        <v>1.040059721234537</v>
+        <v>1.040511751375032</v>
       </c>
       <c r="N23">
-        <v>1.010839940609148</v>
+        <v>1.013795517921466</v>
       </c>
       <c r="O23">
         <v>1.03</v>
       </c>
       <c r="P23">
-        <v>1.040276972718373</v>
+        <v>1.040634724288757</v>
       </c>
       <c r="Q23">
         <v>1.02</v>
       </c>
       <c r="R23">
-        <v>1.035786433040419</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>1.03601355975349</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.021461904080698</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1599,52 +1803,61 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.003109156129572</v>
+        <v>1.003040498908043</v>
       </c>
       <c r="D24">
-        <v>1.025443311792239</v>
+        <v>1.024924141709791</v>
       </c>
       <c r="E24">
-        <v>1.023120017924482</v>
+        <v>1.022990666528078</v>
       </c>
       <c r="F24">
-        <v>1.031227334774252</v>
+        <v>1.030966027325029</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.046039705622474</v>
+        <v>1.045955166460055</v>
       </c>
       <c r="J24">
-        <v>1.030488044717624</v>
+        <v>1.030422007599764</v>
       </c>
       <c r="K24">
-        <v>1.039037876469206</v>
+        <v>1.038527256429695</v>
       </c>
       <c r="L24">
-        <v>1.036752931014738</v>
+        <v>1.036625721288595</v>
       </c>
       <c r="M24">
-        <v>1.044727391982227</v>
+        <v>1.044470324766077</v>
       </c>
       <c r="N24">
-        <v>1.012749261903946</v>
+        <v>1.014513252854035</v>
       </c>
       <c r="O24">
         <v>1.03</v>
       </c>
       <c r="P24">
-        <v>1.043971112868707</v>
+        <v>1.043767662348205</v>
       </c>
       <c r="Q24">
         <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.038724556255103</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>1.038377310670388</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.022238094699562</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1652,49 +1865,58 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.012150096467439</v>
+        <v>1.011380878756999</v>
       </c>
       <c r="D25">
-        <v>1.031532855468861</v>
+        <v>1.030330053794748</v>
       </c>
       <c r="E25">
-        <v>1.030754941762372</v>
+        <v>1.029965688924981</v>
       </c>
       <c r="F25">
-        <v>1.037890758819749</v>
+        <v>1.037052353409295</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.047930572640035</v>
+        <v>1.047538210589094</v>
       </c>
       <c r="J25">
-        <v>1.036275367682301</v>
+        <v>1.035531208839614</v>
       </c>
       <c r="K25">
-        <v>1.043660619402191</v>
+        <v>1.042475097276776</v>
       </c>
       <c r="L25">
-        <v>1.042893875434429</v>
+        <v>1.042115976991964</v>
       </c>
       <c r="M25">
-        <v>1.049928025657703</v>
+        <v>1.049101473638705</v>
       </c>
       <c r="N25">
-        <v>1.014867774912792</v>
+        <v>1.01593433946325</v>
       </c>
       <c r="O25">
         <v>1.03</v>
       </c>
       <c r="P25">
-        <v>1.048087034487784</v>
+        <v>1.047432880485958</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.041990187345919</v>
+        <v>1.041165432631557</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.023169544554692</v>
       </c>
     </row>
   </sheetData>
